--- a/Batch/16/In_Class/Day_2.xlsx
+++ b/Batch/16/In_Class/Day_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\16\In_Class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2A4FE1-0E8D-441A-BAC1-181E2746B607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D001EA-AB0B-4B74-99BD-A365A8BC0835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" tabRatio="742" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" tabRatio="742" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="275">
   <si>
     <t>Components of the Excel</t>
   </si>
@@ -2359,21 +2359,28 @@
   <si>
     <t>Red</t>
   </si>
+  <si>
+    <t>Suhail</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="172" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="173" formatCode="dd\/mm\/yy"/>
-    <numFmt numFmtId="174" formatCode="ddd\/mmm\/yyyy"/>
-    <numFmt numFmtId="175" formatCode="dd/mmmm/yyyy\ hh:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="185" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="187" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="dd\/mm\/yy"/>
+    <numFmt numFmtId="168" formatCode="ddd\/mmm\/yyyy"/>
+    <numFmt numFmtId="169" formatCode="dd/mmmm/yyyy\ hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="170" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="175" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -2865,33 +2872,33 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
@@ -2902,7 +2909,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -2928,533 +2935,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3504,8 +2984,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>151339</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5">
@@ -3524,7 +3004,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5">
@@ -3569,8 +3049,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>159720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Ink 19">
@@ -3589,7 +3069,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Ink 19">
@@ -3634,8 +3114,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>96107</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Ink 25">
@@ -3654,7 +3134,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Ink 25">
@@ -3699,8 +3179,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>124402</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Ink 36">
@@ -3719,7 +3199,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Ink 36">
@@ -3764,8 +3244,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>113046</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Ink 37">
@@ -3784,7 +3264,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Ink 37">
@@ -3916,6 +3396,336 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104580</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428302</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171840</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC737C8D-FC0E-4586-A31D-2F0663251FD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8829480" y="5060893"/>
+            <a:ext cx="323722" cy="161918"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC737C8D-FC0E-4586-A31D-2F0663251FD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8823276" y="5054948"/>
+              <a:ext cx="336131" cy="173808"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>705802</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1030244</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223C7A23-6B08-CFBA-579C-A09A77E22F35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10078402" y="5107611"/>
+            <a:ext cx="319680" cy="114840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223C7A23-6B08-CFBA-579C-A09A77E22F35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10072282" y="5101491"/>
+              <a:ext cx="331920" cy="127080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>570420</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>550560</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10029</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B630F7A-C520-4650-29C2-7275DF8F103E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9295320" y="5134693"/>
+            <a:ext cx="627840" cy="101160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="Ink 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B630F7A-C520-4650-29C2-7275DF8F103E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9289204" y="5128573"/>
+              <a:ext cx="640073" cy="113400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67440</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>934124</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57961</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AB6C7A-0D78-3524-C6B4-E5E97073F069}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9440040" y="5401731"/>
+            <a:ext cx="861922" cy="241282"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="Ink 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AB6C7A-0D78-3524-C6B4-E5E97073F069}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9433919" y="5395600"/>
+              <a:ext cx="874163" cy="253544"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229222</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>506782</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>151371</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84138C2A-BFCE-D88E-25B3-C9F6C0DE385B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8954122" y="5394613"/>
+            <a:ext cx="277560" cy="166958"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84138C2A-BFCE-D88E-25B3-C9F6C0DE385B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8947897" y="5388496"/>
+              <a:ext cx="290010" cy="179192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1085</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -3927,8 +3737,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>39369</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Ink 7">
@@ -3947,7 +3757,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Ink 7">
@@ -3992,8 +3802,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>154085</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Ink 14">
@@ -4012,7 +3822,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Ink 14">
@@ -4057,8 +3867,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>56376</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Ink 24">
@@ -4077,7 +3887,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Ink 24">
@@ -4122,8 +3932,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>144759</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Ink 27">
@@ -4142,7 +3952,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Ink 27">
@@ -4187,8 +3997,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>7529</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Ink 42">
@@ -4207,7 +4017,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="Ink 42">
@@ -4252,8 +4062,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>170103</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Ink 46">
@@ -4272,7 +4082,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="47" name="Ink 46">
@@ -4317,8 +4127,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>30272</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Ink 47">
@@ -4337,7 +4147,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Ink 47">
@@ -4382,8 +4192,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>153985</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="56" name="Ink 55">
@@ -4402,7 +4212,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="56" name="Ink 55">
@@ -4447,8 +4257,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>171985</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="57" name="Ink 56">
@@ -4467,7 +4277,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="57" name="Ink 56">
@@ -4512,8 +4322,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>58712</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="62" name="Ink 61">
@@ -4532,7 +4342,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="62" name="Ink 61">
@@ -4577,8 +4387,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>36985</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="63" name="Ink 62">
@@ -4597,7 +4407,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="63" name="Ink 62">
@@ -4642,8 +4452,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>151718</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Ink 63">
@@ -4662,7 +4472,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Ink 63">
@@ -4707,8 +4517,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>96133</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Ink 68">
@@ -4727,7 +4537,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Ink 68">
@@ -4772,8 +4582,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>169844</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Ink 72">
@@ -4792,7 +4602,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Ink 72">
@@ -4837,8 +4647,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>116084</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="87" name="Ink 86">
@@ -4857,7 +4667,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="87" name="Ink 86">
@@ -4902,8 +4712,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>140665</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="92" name="Ink 91">
@@ -4922,7 +4732,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="92" name="Ink 91">
@@ -4967,8 +4777,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>2009</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="99" name="Ink 98">
@@ -4987,7 +4797,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="99" name="Ink 98">
@@ -5032,8 +4842,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>173792</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Ink 99">
@@ -5052,7 +4862,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Ink 99">
@@ -5141,8 +4951,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152023</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="102" name="Ink 101">
@@ -5161,7 +4971,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="102" name="Ink 101">
@@ -5206,8 +5016,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>126185</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="109" name="Ink 108">
@@ -5226,7 +5036,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="109" name="Ink 108">
@@ -5271,8 +5081,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>134465</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="110" name="Ink 109">
@@ -5291,7 +5101,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="110" name="Ink 109">
@@ -5336,8 +5146,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>134825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Ink 110">
@@ -5356,7 +5166,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Ink 110">
@@ -5401,8 +5211,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>131225</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="112" name="Ink 111">
@@ -5421,7 +5231,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="112" name="Ink 111">
@@ -5466,8 +5276,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>160385</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="113" name="Ink 112">
@@ -5486,7 +5296,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="113" name="Ink 112">
@@ -5531,8 +5341,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>142025</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="118" name="Ink 117">
@@ -5551,7 +5361,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="118" name="Ink 117">
@@ -5596,8 +5406,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>104636</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="123" name="Ink 122">
@@ -5616,7 +5426,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="123" name="Ink 122">
@@ -5661,8 +5471,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>68585</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="124" name="Ink 123">
@@ -5681,7 +5491,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="124" name="Ink 123">
@@ -5726,8 +5536,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>135554</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="128" name="Ink 127">
@@ -5746,7 +5556,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="128" name="Ink 127">
@@ -5869,7 +5679,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5884,8 +5694,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>84278</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Ink 11">
@@ -5904,7 +5714,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Ink 11">
@@ -5949,8 +5759,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>107109</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Ink 24">
@@ -5969,7 +5779,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Ink 24">
@@ -6014,8 +5824,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>104078</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Ink 30">
@@ -6034,7 +5844,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Ink 30">
@@ -6079,8 +5889,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>154455</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="36" name="Ink 35">
@@ -6099,7 +5909,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="36" name="Ink 35">
@@ -6144,8 +5954,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>56303</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Ink 42">
@@ -6164,7 +5974,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="Ink 42">
@@ -6209,8 +6019,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1605</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Ink 43">
@@ -6229,7 +6039,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Ink 43">
@@ -6274,8 +6084,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>65221</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Ink 44">
@@ -6294,7 +6104,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Ink 44">
@@ -6339,8 +6149,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>105158</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Ink 49">
@@ -6359,7 +6169,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="50" name="Ink 49">
@@ -6404,8 +6214,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>67440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Ink 63">
@@ -6424,7 +6234,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Ink 63">
@@ -6469,8 +6279,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>163118</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="65" name="Ink 64">
@@ -6489,7 +6299,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="65" name="Ink 64">
@@ -6534,8 +6344,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123902</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="66" name="Ink 65">
@@ -6554,7 +6364,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="66" name="Ink 65">
@@ -6599,8 +6409,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>68904</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="68" name="Ink 67">
@@ -6619,7 +6429,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="68" name="Ink 67">
@@ -6664,8 +6474,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>107004</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="81" name="Ink 80">
@@ -6684,7 +6494,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="81" name="Ink 80">
@@ -6729,8 +6539,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>122102</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="83" name="Ink 82">
@@ -6749,7 +6559,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="83" name="Ink 82">
@@ -6794,8 +6604,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>64480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="93" name="Ink 92">
@@ -6814,7 +6624,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="93" name="Ink 92">
@@ -6859,8 +6669,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>39174</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="94" name="Ink 93">
@@ -6879,7 +6689,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="94" name="Ink 93">
@@ -6924,8 +6734,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>180653</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="97" name="Ink 96">
@@ -6944,7 +6754,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="97" name="Ink 96">
@@ -6989,8 +6799,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>172373</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Ink 99">
@@ -7009,7 +6819,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Ink 99">
@@ -7054,8 +6864,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>56282</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="101" name="Ink 100">
@@ -7074,7 +6884,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="101" name="Ink 100">
@@ -7119,8 +6929,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>2178</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="124" name="Ink 123">
@@ -7139,7 +6949,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="124" name="Ink 123">
@@ -7184,8 +6994,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>46900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="125" name="Ink 124">
@@ -7204,7 +7014,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="125" name="Ink 124">
@@ -7249,8 +7059,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>95162</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="137" name="Ink 136">
@@ -7269,7 +7079,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="137" name="Ink 136">
@@ -7314,8 +7124,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>10180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="139" name="Ink 138">
@@ -7334,7 +7144,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="139" name="Ink 138">
@@ -7379,8 +7189,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>28923</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="147" name="Ink 146">
@@ -7399,7 +7209,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="147" name="Ink 146">
@@ -7444,8 +7254,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>66805</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="148" name="Ink 147">
@@ -7464,7 +7274,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="148" name="Ink 147">
@@ -7509,8 +7319,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161530</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="156" name="Ink 155">
@@ -7529,7 +7339,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="156" name="Ink 155">
@@ -7574,8 +7384,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>172756</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="158" name="Ink 157">
@@ -7594,7 +7404,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="158" name="Ink 157">
@@ -7639,8 +7449,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>67058</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="172" name="Ink 171">
@@ -7659,7 +7469,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="172" name="Ink 171">
@@ -7704,8 +7514,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>2176</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="173" name="Ink 172">
@@ -7724,7 +7534,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="173" name="Ink 172">
@@ -7769,8 +7579,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>38176</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="188" name="Ink 187">
@@ -7789,7 +7599,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="188" name="Ink 187">
@@ -7824,7 +7634,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7920,6 +7730,165 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T17:58:00.106"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">98 1 9780,'0'0'7158,"0"3"-6763,-2 25-29,-2 1-1,-1-1 0,-1 0 0,-18 49 1,-2 11 416,22-71-534,3-11-97,0 0 1,0-1-1,-1 1 1,0-1 0,0 1-1,0-1 1,0 0-1,-7 9 1,9-14-201,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0 0,0 0-1,1-13-5186,3-4-3164</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="324.37">353 306 5651,'0'0'13232,"-7"0"-12656,5 0-559,4 0 127,195-9 1398,-97-9-2495,-80 12-1096,1-1 0,30-14 0,-38 13-3268,-7-2-1427</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="605.34">647 166 2321,'0'0'13313,"-7"-4"-12230,6 4-1034,-21-11 71,17 6-141,18 6 14,-4 1 23,-1 1 0,0-1 0,1 2 0,-1-1-1,-1 2 1,1-1 0,-1 1 0,1 0 0,-1 0 0,0 1-1,7 7 1,-11-10 25,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1-1,1 1 1,-2-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,0-1-1,-2 5 1,-3-1 45,0 0 0,0-1 0,0 0 0,-1-1 0,0 1 0,-1-1 0,1 0 0,-1-1 0,-11 6 0,-27 22-375,1 3-4566,23-23-1666</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:07:42.919"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3662 117 3169,'0'0'6953,"-6"-20"1787,21 294-8316,-14-208 193,1-11-1921,-2-19-7442</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2350.63">3643 133 1185,'0'0'9004,"-11"-12"-5453,14 10-3413,1 0 0,-1 0 1,1 0-1,-1 0 1,1 1-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 1-1,5-1 1,51 0 660,-41 2-706,356-33 308,-214 13-429,50-2-675,307 9 0,-406 23 380,48 1-191,-158-4 534,-1 0 1,-1-1 0,1 1 0,-1 0 0,-1 9 0,1-10-2,-8 96 98,1-35-69,1-16-38,-15 59 0,4-24-9,14-60 241,1 0 0,1 29 0,1-42 748,-36-19-625,-34-11 128,-2 4 0,-84-4-1,-146 11 658,247 5-1246,-173 14 233,1 0-42,99-10-29,-86-3 52,165-9 64,46 8-171,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,-2-3 1,2-2-1057,0-1 0,0 1 0,0 0 1,1-1-1,1 1 0,-1-1 0,1 0 1,1-7-1,-1 1-657</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3669.31">43 113 1505,'0'0'7510,"-3"-5"-6515,1 2-615,-10-16-24,8 8 3897,4 21-4800,2 29 595,13 69 1,-3-24 185,-3-14-103,-2-25 33,1 72 0,-2-128-8918,-6-7 2266</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4596.96">1 162 3201,'0'0'6361,"5"-2"-6244,39-16 585,1 2 0,0 2 1,1 2-1,92-11 0,433-25-281,-265 28-1325,-197 14 688,-108 5 229,1 1 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1 0 1,0-1-1,0 1 0,2 3 1,0 0-4,-1 0 1,0 0 0,0 1 0,-1-1 0,1 1-1,-1-1 1,2 11 0,6 48 135,3 116 0,-10-116-126,-1 145 428,-2-206-379,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-3 0 0,-58 8 276,63-8-346,-395 20-79,-163-7-283,403-14-3100,167 0-1177,9-5-1138</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6042.59">1492 281 1393,'0'0'8542,"7"0"-7885,277-13 2923,156 13-3282,-195 1-241,19 2-55,221-4-114,-242-8 592,-236 10-472,1-1-1,0 1 1,-1 0-1,15 5 1,-21-5-32,-2-3 14,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 1 0,-5-3 1,-52-33-249,31 21 196,-13-7 270,40 22-80,28 12-768,96 73 189,-122-84 444,-1 1 0,1-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,-33 21 525,33-21-510,-34 17 107,-42 21 777,27-8-5663,38-23-464</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:07:56.762"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">87 277 8228,'0'0'8508,"5"-17"-3216,-5 10-5710,0 6 399,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,0 0 0,-1 0-26,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1 0,1 0-1,-1-1 1,-2 5 0,2 0-93,1-1 1,-1 1-1,1-1 1,1 1-1,-1 0 1,2 7-1,-1-14 134,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1-1,0 0 1,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,16-10 213,-12 6-189,-1 0-1,0 0 0,-1 0 0,1-1 1,-1 0-1,0 1 0,-1-1 0,1 0 1,-1 0-1,0 0 0,-1 0 0,1-1 1,0-6-1,0-12-60,-1 0 0,-2-27-1,0 12 1,0 13-9,-1 45-296,-1 47 248,3-41 113,2 57 15,-1-77-33,-1 0 1,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,0 1 0,1-1 0,-1 0-1,1 0 1,0 0 0,4 4 0,-6-6 2,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 0,-1-1 0,1 1 1,1-2-1,0 1-2,-1-1 0,0-1 1,0 1-1,0 0 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 1 1,-1-1-1,0 0 0,0 0 1,1-3-1,2-8-70,0 0-1,-2 0 1,0 0 0,1-25 0,-3 38 44,3 42-509,-1-34 486,5 14-510,0-15-2471,3-9-3570,-7-3 902</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="199.22">214 130 4898,'0'0'1745</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="478.12">214 130 7091,'58'53'1761,"-54"-49"-1441,0 0 0,0-1 0,-1 1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,1 8 0,5 17 144,-8-33-332,-1 1 1,1-1 0,0 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,1-1 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,1 1 1,-1 0 0,0 0-1,1 0 1,0 0 0,3-4-1,-4 5-496,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,3-1 0,4 1-3385</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="883.61">401 250 1873,'0'0'9591,"29"5"-7798,-24-6-1654,0 1 1,-1-1 0,1 0-1,0 0 1,-1 0 0,1-1-1,-1 0 1,5-2-1,-8 4-118,0-1-1,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0-1 0,-1 1 0,1 0 1,-1 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,-1 0-1,0-2 0,1 2-7,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,0 0 7,-1 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,-1-1 0,1 1 1,-1 0-1,1 0 1,-3 3-1,4-4-20,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 2 1,0-3-119,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,2 1 1,2 0-743,1-1 0,-1 0 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 0 0,1-1 0,9-3 0,8-5-1968</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1272.16">593 203 96,'0'0'13169,"-20"-3"-10253,18 4-2897,1 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,1 1-1,-1-1 1,0 1 0,1-1 0,0 1 0,-1-1-1,1 1 1,0 0 0,0-1 0,-1 1 0,1-1 0,0 1-1,1 0 1,-1-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,1 1 0,0 1 0,1-1-32,-1 0 0,1 0-1,-1-1 1,1 1 0,0-1 0,-1 0 0,1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1-1,1 0 1,-1-1 0,0 0 0,0 1 0,0-1 0,5 0 0,-2-1-25,1 1 0,0-1 1,0-1-1,-1 1 0,1-1 1,-1 0-1,0 0 0,1-1 1,-1 1-1,0-1 0,0-1 1,0 1-1,-1 0 0,1-1 1,-1 0-1,0 0 0,0-1 1,6-8-1,-4 6-44,-1-1-1,-1 1 1,0-1-1,0 1 1,0-1-1,-1 0 1,0-1-1,-1 1 1,0 0-1,0-1 1,0 0 0,-1-10-1,0 3 87,-1-28-105,0 42 135,0 0-1,0 1 1,0-1-1,0 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,-1 1 0,1 0-1,0-1 1,0 1-1,-2-1 1,2 3 37,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,1 0 0,-1 0 0,0 5 0,-2 10 402,1 0 0,0 0 0,1 0 0,3 30-1,-2-43-561,1 1-1,0-1 0,0 0 1,0 1-1,0-1 0,1 0 0,0 0 1,0 0-1,0 0 0,4 6 1,-4-9-248,-1 1 0,1 0 1,-1-1-1,1 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,3-1 1,9-2-8466</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1486.96">663 132 9620,'0'0'7652,"47"-12"-7924,-6-3 272,6 0-689,0 0-1007,-8 4-946,-13 1-2464</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:08:07.703"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 169 6915,'0'0'8212,"12"20"-5803,-9-4-2169,-2-1-1,0 1 0,0 21 1,2 38-451,-2-74 34,-1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,6 1-5222</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="211.58">60 4 7732,'0'0'3313,"9"-3"-6594,0 6 831,-3 8-1551</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="707.84">134 228 7187,'0'0'8111,"5"28"-7004,0-16-767,-1 0 1,-1 1 0,0-1-1,0 1 1,0 17-1,-3-30-305,2-2-42,0-1 1,0 1-1,-1 0 0,1-1 0,-1 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,0 1 0,0-6 1,1 2 24,0-3-22,1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,1 0 0,9-11 0,-14 19 1,1 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,0 0 0,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 0,-1-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,0-1 0,0 2 1,11 24 364,-10-23-303,5 13-422,14 30 1912,-6-28-3553,5-10-4696,-10-8 1839</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1428.36">377 281 5410,'0'0'10213,"-8"-4"-9562,3 1-627,-28-11 652,32 14-652,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1-1,-1 0 1,0 2 0,-1 1-18,0 1-1,1-1 0,0 1 0,0-1 0,0 1 0,0-1 1,1 1-1,-1 0 0,1-1 0,0 1 0,1 0 0,-1-1 0,2 8 1,-2-11-21,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 1 0,0-1 1,0-1-1,-1 1 0,1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,2 0 1,-2-1-9,1 1-1,0-1 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,1-2-1,3-1-32,-1-1-1,1 0 1,-1 0-1,0 0 1,0-1-1,0 0 1,-1 0-1,0 0 0,0-1 1,0 1-1,-1-1 1,0 0-1,0 0 1,-1-1-1,4-13 1,-2-3 160,0 1 1,-2-1 0,0-43 0,-3 79 619,-2 74-69,3-81-652,0-1 0,0 1 0,1 0 1,-1-1-1,1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 0 0,1-1 0,5 6 0,-7-8-21,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,1-1-1,0-1 13,-1 0 0,1 1 0,0-1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,2-2 0,0-7 58,1-1 0,-2 0 0,1-26 0,-2 39 120,0 26-95,0-15-636,0 40 1917,5-32-3018,-5-18 1477,1-1 0,-1 1 0,0-1 0,0 0 1,1 1-1,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1591.62">551 73 8196,'0'0'3345</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1950.08">584 214 5843,'0'0'6280,"6"12"-5656,2 2-516,1 3 452,1 0 0,-2 1 0,13 38 0,-22-61-262,0 0 0,0-1-1,1 1 1,0 0 0,0 0 0,0 0 0,1 0-1,0-1 1,0 1 0,0 0 0,0 0 0,1 0-1,-1 1 1,4-7 0,-2 5-579,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,9-4 1,7-2-6812,-12 8 1548</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2325.12">748 207 2049,'0'0'9708,"26"-6"-6810,-23 4-2872,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 1,1 0-1,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-4 0,-2 7-11,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 0,-1-1 1,1 1-1,0-1 1,-1 1-1,-16 10 179,14-8-93,-1 2 0,1-1 1,0 0-1,0 1 1,0-1-1,1 1 1,-1 0-1,1 0 1,0 0-1,1 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 1,1-1-1,1 8 1,0-12-225,0 0 0,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 1,1-1-1,-1 1 1,0-1-1,1 0 0,-1 1 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,2-1-1,39-8-7641,-21-2 1597</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2793.89">961 169 7443,'0'0'8167,"-8"8"-6967,4-4-1158,0-1 71,1 0 1,-1 0-1,1 1 0,0 0 1,0-1-1,0 1 0,0 0 1,1 1-1,0-1 0,-1 0 0,1 1 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 0,1 0 1,-1 0-1,0 0 0,1 0 1,0 5-1,1-8-119,0-1-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 0 0,1 1 0,-1-1 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,3-1-1,38-9-33,-28 4-65,0-2 0,-1 0 1,0 0-1,-1-1 0,1-1 1,-2 0-1,1 0 1,11-16-1,-18 20 26,0-1-1,0 0 1,-1 0 0,1 0-1,-2-1 1,1 1 0,-1-1 0,0 0-1,0 0 1,-1 0 0,0-1-1,-1 1 1,1 0 0,-1-1 0,-1 1-1,0-1 1,0-10 0,-1 18 110,1 0 1,0-1-1,0 1 0,-1 0 1,1 0-1,0-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,-1-1 1,1 1-12,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 2 0,-6 24 136,1 2 1,1-1-1,2 0 0,0 1 0,2 0 1,2 27-1,-2-52-198,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 1,0 0-1,3 2 0,11 4-2911,2-7-3280,-6-4-1344</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3011.08">1066 165 2177,'0'0'14983,"5"0"-15367,22-7 80,2-4 272,-2 2-977,-1-2-512,-2 4-512,-4 0-256,-5 3-1921,-3 1-896</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:11:59.977"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">164 8 8084,'0'0'8102,"-5"-3"-7552,5 3-520,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 1,0 1-1,-1 28 1046,2-15-1223,2 125 831,-5 154-413,0-249-147,-15 132 558,18-175-665,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-2 1 0,1-2-4,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,1-1 0,-2-2 1,-42-60-31,44 61 19,-2-1 4,0-1 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-2-11 0,4 16 2,12 12-512,9 8 492,-2-2 18,0 0 1,0-1-1,43 27 1,-60-44-4,-1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,-1 0-1,1 1 1,0-1-1,0 0 1,-1 0 0,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1-2-1,17-40 161,-16 38-150,15-51 443,-4 8-2206,0 18-7297</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:12:01.144"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -7931,20 +7900,20 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">31 78 5234,'0'0'6099,"0"12"-426,0 42-5423,-1-32 368,0 1-1,-1-1 1,-11 43-1,4-43 476,5-14-3256</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="543.25">31 70 2177,'0'0'9025,"47"-3"-8093,-9-3 310,-20 2-2218,1 1-5568</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="810.04">31 171 7395,'0'0'6185,"21"0"-5892,29-5 567,-20 0-2357,-9 4-3703</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1052.14">34 305 3618,'0'0'11509,"4"0"-11061,6 0-96,3 0 369,4-5-465,0-3-208,4-2-48,-1 0-64,0 1-1329,1-1-2064,-4 0-1218,-7 1-2496</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1052.13">34 305 3618,'0'0'11509,"4"0"-11061,6 0-96,3 0 369,4-5-465,0-3-208,4-2-48,-1 0-64,0 1-1329,1-1-2064,-4 0-1218,-7 1-2496</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1390.81">299 72 6659,'0'0'6955,"3"81"-3017,-4-71-3667,0-1 1,0 1-1,-1-1 1,-5 16-1,-1 5-1548,4-1-6353</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1860.2">529 74 384,'0'0'12195,"-3"-3"-11053,1 1-995,0 1 0,0-1 1,1 1-1,-1 0 0,-1 0 0,1-1 1,0 1-1,0 1 0,0-1 0,0 0 0,-1 0 1,1 1-1,0 0 0,-4-1 0,5 1-124,-1 0-1,1 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 1,1 0-1,-1 2 1,1 0-19,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0-1 0,1 1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,0-1 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,1 0-1,-1-1 1,1 1-1,-1-1 1,1 1-1,0-1 1,2 1 0,-1 0 10,-1-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 1,-1-1-1,0 1 0,1 0 0,-1 0 0,0 0 1,0 0-1,2 6 0,-3-7 24,-1-1 0,1 1-1,-1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1-1 0,1 1-1,0 0 1,-1 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,0 0 0,0-1-1,-1 3 1,-15 2-5847,11-6 1697</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2059.12">489 86 1969,'0'0'10741,"64"-43"-10197,-47 37 112,3-4-15,1 2-209,-4 1-240,-4-1-176,-3 4-16,-3 4-544,0 0-1809,-4 0-1617</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4081.05">105 571 976,'0'0'8716,"1"11"-1374,2 37-6688,-7 105 1590,4-147-2369,-1-15-1817,2-19-5926,3 16 432</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4469.18">89 632 3666,'0'0'9737,"0"-1"-9645,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 1,0-1-1,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 1,37-12 208,-27 8-232,0 0 0,0 1 0,0 0 0,23-2 0,-33 5-700,-3 10-9901,-6 1 6245</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4742.97">89 645 1201,'6'30'2311,"0"1"-137,-5-2 5802,47-30-5529,-10-9-1832,8-1-2185</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4742.96">89 645 1201,'6'30'2311,"0"1"-137,-5-2 5802,47-30-5529,-10-9-1832,8-1-2185</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4999.37">112 904 2801,'0'0'10293,"7"0"-9413,0 0 65,6-8 15,1 0-399,3 0-337,-4 3-160,-2-1-64,-1 0-16,0-2-1201,0 0-1904,0 2-1682</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5443.2">431 591 2945,'0'3'12764,"0"116"-8913,0-79-5759,0 0-4443</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5894.77">685 542 9012,'0'0'7708,"0"-4"-6911,0 4-771,1-1 0,-1 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,-1 1-2,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,1 0-1,0 1 0,-3 1 1,-3 5 21,-1-1 0,1 2 0,1-1 0,-10 16 0,11-15-14,0 1 1,0 0 0,1 0 0,1 0 0,0 0-1,0 1 1,0-1 0,2 1 0,-1 0-1,1 0 1,1 0 0,0 0 0,2 16 0,-1-25-29,0 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,0 0 1,1-1-1,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,5 0 1,-4 0 1,0 0 0,0 0 0,0 0 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,-1-1 0,1 0 1,0 0-1,-1 0 0,3-2 0,-5 3 2,1 1 0,-1 0 0,0 0 0,0 0 0,0-1-1,1 1 1,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,-15-3 25,-17 10-209,-1 21 15,15-10-2810</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7972,7 +7941,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8002,7 +7971,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8027,13 +7996,13 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">55 28 2401,'0'0'10330,"-2"16"-6077,-9 61-2236,2 43-93,7-84-9219,2-50 1044</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="468.93">1 6 3570,'0'0'10052,"30"-5"-8534,15 10-624,-30-4-758,0 0 1,0 1-1,0 1 0,0 1 1,22 8-1,-33-11-119,-1 1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 1,0-1-1,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 7 0,0-5 67,-1 0 0,0 0-1,0-1 1,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,0-1 0,-6 7-1,3-4 80,0 0-1,0-1 1,-1 0-1,1-1 1,-1 0 0,0 0-1,-1-1 1,1 0-1,-10 3 1,13-7-324,5-6-6201,8-4 722</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1042.37">373 92 8724,'0'0'7897,"1"-4"-7585,1 2-248,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 1 1,3 1 0,-5-2-39,1 1 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,-2 3-1,1 1 77,0 1 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-4 6 0,-3 1-42,-1 0 1,0-1 0,-1 0 0,-15 11 0,21-18-45,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-2 0,0 1 0,-1-1 0,-7 0 0,13-1-8,6-13-731,1 11 750,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,6 6 0,-9-9-299,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,2 0 0,5-1-2369,14 1-3847</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="468.92">1 6 3570,'0'0'10052,"30"-5"-8534,15 10-624,-30-4-758,0 0 1,0 1-1,0 1 0,0 1 1,22 8-1,-33-11-119,-1 1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 1,0-1-1,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 7 0,0-5 67,-1 0 0,0 0-1,0-1 1,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,0-1 0,-6 7-1,3-4 80,0 0-1,0-1 1,-1 0-1,1-1 1,-1 0 0,0 0-1,-1-1 1,1 0-1,-10 3 1,13-7-324,5-6-6201,8-4 722</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1042.36">373 92 8724,'0'0'7897,"1"-4"-7585,1 2-248,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,0 0 0,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 1 1,3 1 0,-5-2-39,1 1 0,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 1 1,-1-1-1,1 0 1,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1-1,0-1 1,-2 3-1,1 1 77,0 1 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-4 6 0,-3 1-42,-1 0 1,0-1 0,-1 0 0,-15 11 0,21-18-45,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-2 0,0 1 0,-1-1 0,-7 0 0,13-1-8,6-13-731,1 11 750,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,6 6 0,-9-9-299,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 1,1 1-1,0 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 0,2 0 0,5-1-2369,14 1-3847</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1462.14">607 158 5330,'0'0'11608,"-23"20"-9791,21-16-1648,1 0-1,-1 1 0,1 0 1,0-1-1,0 1 1,1 0-1,-1 0 0,1 8 1,0-12-160,0 1 0,0-1 0,0 0-1,1 0 1,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,3 1-3,0-1-1,-1 0 0,1-1 0,0 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1-1 1,0-1-1,0 1 0,0 0 0,0-1 1,0 0-1,0 0 0,-1 0 0,0-1 1,1 1-1,-1-1 0,0 1 0,0-1 1,-1 0-1,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,-1-1 0,0 0 1,1 1-1,-2-1 0,2-7 1,-2 10 10,-1 0 0,0 0 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 0,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 0,-4 0 1,-53-6 273,54 6-535,-49 5 948,31 8-1759,21-12 752,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1-1 1,0 1-1,0 2 0</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8058,153 +8027,6 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">659 84 8580,'0'0'9895,"-37"16"-6747,22-10-2955,-1-1 0,-1-1 0,1-1 0,-1-1 0,1 0 0,-19-1 0,-106-11-39,67 4-135,-3 0 15,-120-3 180,209 7-285,-1 0 1,0-1 0,0 0 0,0-1-1,-1-1 1,1 0 0,17-11-1,4-1-276,-12 9 160,-14 6 100,-1 0 0,1 0 0,0-1 0,0 1 1,-1-2-1,10-6 0,-15 8 554,-5 4-472,1 1 1,-1 0-1,0 0 0,1 0 1,0 1-1,0-1 0,0 1 1,-7 9-1,1-3-1,-26 25-7,22-20 31,-1-1 1,-1 0 0,-22 15-1,94-26-287,-9-5 325,-28 1-46,1 0 0,0 1 0,22 4 0,-38-2-121,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,4 4 1,5 5-7538</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:13:17.467"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">66 38 4290,'0'0'11915,"-13"-9"-10428,9 10 2468,17 229-2337,-5-134-3007,-5-15-6083,-3-101 1632</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="584.34">25 129 3602,'0'0'10901,"-4"-10"-9832,-14-31-236,17 40-803,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 1,1-1-1,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,3-1 0,45-19 277,-44 19-241,-2 1-64,0-1-1,1 1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,5 2 1,-7-1 7,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,0 1 1,-1-1-1,1 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,-1-1-1,0 1 1,1 0-1,-1-1 1,0 1 0,0 0-1,0 0 1,-1 3 0,1 6 66,0 1 1,-1-1 0,-1 1-1,0-1 1,-1 0 0,0 1-1,-1-1 1,0-1 0,-1 1 0,0 0-1,0-1 1,-1 0 0,-1 0-1,0-1 1,-12 14 0,82-15-267,-59-7 184,0 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1 0,-1 0-1,1-1 1,-1 1 0,0 0-1,0 1 1,-1-1 0,1 0-1,-1 1 1,0-1 0,1 1-1,-2 0 1,4 6 0,-4-7 36,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1-1-1,-1 1 1,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1 0,-1-1-1,-4 3 1,-52 30 1391,55-33-1416,0 0 0,0 0-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,-6-2 0,10 2-133,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 1,0 0-1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 1,13-33-6719,2 10-580</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1143.77">253 131 9060,'0'0'9799,"-4"-9"-9233,-11-25-217,15 33-334,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,1 1 1,38-4 370,-38 4-366,1 0-6,-1 0-1,1 1 1,0-1 0,0 1-1,-1-1 1,1 1 0,-1 0 0,1 0-1,0 0 1,-1 1 0,0-1-1,1 1 1,-1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0-1,0 1 1,-1-1 0,1 0-1,0 0 1,-1 1 0,0-1 0,0 0-1,0 1 1,0 0 0,0-1-1,0 1 1,-1-1 0,1 1 0,-1 0-1,0-1 1,0 6 0,1 1 19,-1 0 1,0 0 0,-1-1-1,0 1 1,0 0-1,-1-1 1,0 1 0,0-1-1,-7 15 1,2-10-1,-1 0 1,0-1 0,-11 14-1,17-23-16,-1-1-1,1 1 0,-1 0 0,0-1 1,1 1-1,-1-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1-1 1,1 1-1,-1-1 0,1 0 1,-1 0-1,0 0 0,-6 0 0,8-1-19,1-1-1,0 1 0,-1-1 0,1 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,0 0-1,0-3 0,0 3-9,-1-1 0,1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0-1,-1 0 1,2-1 0,-1 1 4,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 1-1,-1-1 0,1 1 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,1 0 1,-1 0-1,1 1 0,-1-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,2 3-1,0 3 12,0 0 1,0 0-1,-1 0 1,0 1 0,0-1-1,-1 1 1,2 12-1,13 32-874,-16-51 497,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,2-1 0,11 1-5984</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1485.3">478 180 6099,'0'0'9794,"-1"-5"-8674,-4-6-229,2 14-190,2 29 214,1-27-858,1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,3 7-1,-4-11-54,-1 0-1,1 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 1 1,0-1-1,1 0 0,-1 0 0,0-1 1,0 1-1,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,2 0 0,-1 0 14,-1 0 0,1 0 0,0-1-1,-1 1 1,1-1 0,-1 1 0,1-1 0,0 0-1,-1 0 1,0 0 0,1-1 0,-1 1 0,0-1 0,0 1-1,1-1 1,-1 0 0,-1 1 0,1-1 0,0 0-1,0 0 1,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0-1,-1-1 1,0 1 0,1-4 0,1-5 36,-1 0 1,0 0-1,0 0 1,-1 0-1,0-17 1,-2 26-43,1-1 0,-1 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 1 0,0-1 1,-1 0-1,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 1-1,1-1 0,0 1 1,-3-1-1,2 0-175,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,0 0 0,0 0 0,0 1 1,1-1-1,-5 3 0,0 4-4613</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:13:21.203"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">194 591 4930,'0'0'10253,"-1"-5"-9538,-5-121 3153,6 87-3576,-2 0-1,-2-1 0,-1 1 1,-19-76-1,11 75-103,7 19-58,-1 0 0,-1 1-1,-10-20 1,18 39-131,-1 1 1,0 0-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0 0 0,1 0 1,-1-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,0 1-1,1-1 0,-1 0 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 1,0-1-1,-1 1 0,0 1 1,-23 28 1,21-26-7,-6 9-17,0 0 1,1 0-1,1 1 1,-7 16 0,20-45-12,1 1 1,0 0 0,1 1-1,0 0 1,1 0 0,1 1-1,18-19 1,-16 18 32,-10 10-4,0 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,6-2 0,-8 4-59,29 37-462,-19-24 106,-5-5 565,0-1-1,0 0 1,1 0 0,11 8-1,-15-13-909,1 0 0,0 0 1,0 0-1,-1 0 0,1-1 0,0 0 0,8 2 0,-1-1-5251</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:13:22.427"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">97 18 3762,'0'0'12640,"-3"-3"-11658,-8-9-102,8 10 900,4 36-1580,-2-24-125,4 64 239,2-1 1,20 94 0,-20-129-261,-2 0 0,-3 62 0,-1-42 30,1-58 36,-17-27 138,14 22-252,-16-19 19,1-1 1,1-1-1,-19-39 0,26 39 81,23 39-57,7 10-89,107 98 101,-126-121-58,-1 1 0,1 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,1-1 1,0-1 6,0 1 0,-1 0 0,0 0-1,1-1 1,-1 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,0 1 1,0-1 0,0-3 0,3-12-68,0-1 0,3-36 1,-5 29-391,2-5-435,-1 1-2012,0 11-2947,1 5-650</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:13:23.647"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">121 136 6131,'0'0'7502,"1"-9"-117,-3-32-7351,1 40-23,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0 0 1,1-1-1,-1 1 1,0 0-1,-1 1 1,-1 1-26,0 1 0,0-1-1,1 1 1,-1 0 0,1 0 0,0 0 0,0 1-1,0-1 1,1 1 0,-1 0 0,1 0 0,-2 7-1,0 0-3,1 0 0,1 0 0,0 0 0,0 1 0,1 17 0,1-26 13,-1-1 1,1 1-1,0-1 1,1 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,0-1-1,0 0 1,0 0-1,0 1 1,1-1-1,0 0 1,-1 0 0,1 0-1,0-1 1,0 1-1,0 0 1,1-1-1,-1 1 1,0-1-1,4 3 1,-4-4 8,-1 0-1,1-1 1,0 1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,0 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1 0,0-1 0,-1 0-1,1 1 1,1-2 0,1-1 54,-1-1 0,0 1 0,0 0 0,-1-1 1,1 0-1,-1 1 0,3-6 0,9-13-3177,4 6-4783,-5 11 1103</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="399.78">284 64 4466,'0'0'10650,"0"76"-6864,0 87-3967,7-164-7484,0-6 1939</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1025.17">520 47 7251,'0'0'8714,"-5"-7"-7837,-18-23 30,22 30-863,0-1 1,1 0-1,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,-20 38-242,20-37 275,-2 6-84,1 0-1,0 0 1,0 0-1,1 0 1,0 0-1,0 0 1,1 1-1,0-1 1,0 0-1,2 13 1,-1-20-2,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1-1 1,1 1-1,1-2 1,2 1-34,0-1 1,0 0-1,0 0 0,-1 0 1,1-1-1,-1 0 1,0 1-1,5-6 1,-5 1 103,0 0 1,0-1-1,-1 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,-1-15 0,1 37-62,1-1 1,0 0 0,1 0 0,0 0 0,0 0-1,7 12 1,-6-12 24,1-1-1,-2 1 1,1 0 0,-2 0-1,0 1 1,1 13 0,-3-26 2,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0-1-1,0 1 1,0 0 0,0-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-2 0,0 1-1,0 0 1,-2 0 0,1 0-155,-1 0 0,1 0 0,0 0-1,-1-1 1,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,-3-2 0,-2-6-5882,0 8-216</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:13:25.754"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">108 94 5122,'0'0'9458,"1"-9"-4983,1-29-3740,-2 35-719,-1 1-1,0 0 1,1-1 0,-1 1-1,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,-3-2 1,3 3-18,1-1 1,0 0 0,-1 1 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,1 1-1,-1-1 1,1 1 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1-1 0,1 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1-1,0-1 1,-1 2 0,-3 6-9,1 0 0,-1 0 0,2 0 0,-1 1 0,2-1 0,-1 1 0,1 0 0,0 0 0,1 0 0,0 0 0,1 0-1,1 12 1,-1-16 8,0-1-1,1 1 0,0 0 0,0 0 0,0-1 1,1 1-1,0 0 0,0-1 0,0 0 0,1 1 1,-1-1-1,1 0 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1-1 0,1 0 0,-1 0 0,1 0 1,-1-1-1,8 4 0,-11-6 16,1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1-1 1,-1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,0 0 1,0-1-1,2-2 1,3-2-300,0-2 1,-1 1-1,0-1 0,8-15 1,10-10-8578,-15 24 1007</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.25">321 122 6755,'0'0'9637,"-4"-8"-8917,1 2-546,0-1 1,1 0-1,-1 1 1,2-1-1,-1 0 1,1 0-1,-1-9 0,2 14-145,0 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,-1 0 1,1 0-1,0 0 0,3 1 0,-4-1-26,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,0 1-1,-1-1 1,1 1-1,-1-1 1,0 1-1,1 0 1,-1 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 1-1,1 1 1,0 2 37,0 0 1,-1-1 0,1 1-1,-1 0 1,0 0 0,0 0 0,1 9-1,-2-2 44,0 0 0,0 0-1,-1 0 1,-1 0 0,0 0-1,-5 14 1,4-16-55,-2 0 0,1 0 0,-11 17 0,14-25-24,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,-1 0 0,1-1-1,0 1 1,0-1 0,-1 0-1,1 1 1,0-1 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1-1-1,-6 1 1,8-1-18,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,0 0 0,12-24-242,-11 23 250,1 0 0,-1 0 1,1 0-1,0 1 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 0,1-1 1,-1 1-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 1,0 0-1,0 0 0,0 0 1,5 2-1,4 3 49,-1 1 0,0 0 0,-1 0 0,17 15 0,-26-21-50,0 0-267,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,2 0 0,3-1-2380,7 1-2884</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="845.46">580 7 4018,'0'0'12251,"9"12"-10907,5 10-869,0-1-1,-2 2 1,0-1-1,-2 2 1,10 29-1,-6-7-12,13 53-190,-27-87-1667</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8243,11 +8065,158 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5345.8">101 1156 1601,'0'-2'11032,"0"7"-10808,0 179 1816,-2-184-2007,0 1-1,0-1 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,-2-1 0,-16-16 56,19 17-144,2 2-405,-1 0 456,1 0 0,-1 0 0,1 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1-1,1-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1-1,0-1 1,0 0 0,2 0 0,27 3-43,-29-3 52,0 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,0 0 0,-1-1-1,1 1 1,0 0 0,0 0 0,-1 0 0,1-1-1,0 1 1,-1 0 0,1-1 0,0 1 0,-1-1-1,1 1 1,-1 0 0,1-1 0,0 0-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 0-1,0 1 1,1-1 0,-1 0 0,2-24 30,-3 12-171,1 12-712</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5873.23">348 1241 1889,'0'0'12960,"0"24"-12455,0 107 1357,0-43-3620</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6185.08">261 1390 2561,'0'0'8524,"3"-1"-8196,150-48 4624,-145 49-14290</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6497.97">560 1271 6051,'0'0'8278,"0"0"-8272,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 123 2762,0-69-5902</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6497.96">560 1271 6051,'0'0'8278,"0"0"-8272,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 1-1,0-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 123 2762,0-69-5902</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:13:17.467"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">66 38 4290,'0'0'11915,"-13"-9"-10428,9 10 2468,17 229-2337,-5-134-3007,-5-15-6083,-3-101 1632</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="584.33">25 129 3602,'0'0'10901,"-4"-10"-9832,-14-31-236,17 40-803,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 1,1-1-1,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,3-1 0,45-19 277,-44 19-241,-2 1-64,0-1-1,1 1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,5 2 1,-7-1 7,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,0 1 1,-1-1-1,1 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,-1-1-1,0 1 1,1 0-1,-1-1 1,0 1 0,0 0-1,0 0 1,-1 3 0,1 6 66,0 1 1,-1-1 0,-1 1-1,0-1 1,-1 0 0,0 1-1,-1-1 1,0-1 0,-1 1 0,0 0-1,0-1 1,-1 0 0,-1 0-1,0-1 1,-12 14 0,82-15-267,-59-7 184,0 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1 0,-1 0-1,1-1 1,-1 1 0,0 0-1,0 1 1,-1-1 0,1 0-1,-1 1 1,0-1 0,1 1-1,-2 0 1,4 6 0,-4-7 36,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 1 0,-1-1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1-1-1,-1 1 1,0 0-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1 0,-1-1-1,-4 3 1,-52 30 1391,55-33-1416,0 0 0,0 0-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,-6-2 0,10 2-133,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 1,0 0-1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 1,13-33-6719,2 10-580</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1143.77">253 131 9060,'0'0'9799,"-4"-9"-9233,-11-25-217,15 33-334,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,1 1 1,38-4 370,-38 4-366,1 0-6,-1 0-1,1 1 1,0-1 0,0 1-1,-1-1 1,1 1 0,-1 0 0,1 0-1,0 0 1,-1 1 0,0-1-1,1 1 1,-1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0-1,0 1 1,-1-1 0,1 0-1,0 0 1,-1 1 0,0-1 0,0 0-1,0 1 1,0 0 0,0-1-1,0 1 1,-1-1 0,1 1 0,-1 0-1,0-1 1,0 6 0,1 1 19,-1 0 1,0 0 0,-1-1-1,0 1 1,0 0-1,-1-1 1,0 1 0,0-1-1,-7 15 1,2-10-1,-1 0 1,0-1 0,-11 14-1,17-23-16,-1-1-1,1 1 0,-1 0 0,0-1 1,1 1-1,-1-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1-1 1,1 1-1,-1-1 0,1 0 1,-1 0-1,0 0 0,-6 0 0,8-1-19,1-1-1,0 1 0,-1-1 0,1 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,1-1 0,-1 1 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,0 0-1,0-3 0,0 3-9,-1-1 0,1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0-1,-1 0 1,2-1 0,-1 1 4,1 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 1-1,-1-1 0,1 1 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,-1 1-1,1-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,1 0 1,-1 0-1,1 1 0,-1-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,2 3-1,0 3 12,0 0 1,0 0-1,-1 0 1,0 1 0,0-1-1,-1 1 1,2 12-1,13 32-874,-16-51 497,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,2-1 0,11 1-5984</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1485.3">478 180 6099,'0'0'9794,"-1"-5"-8674,-4-6-229,2 14-190,2 29 214,1-27-858,1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,3 7-1,-4-11-54,-1 0-1,1 1 0,0-1 1,0 0-1,0 0 0,-1 0 0,1 1 1,0-1-1,1 0 0,-1 0 0,0-1 1,0 1-1,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,2 0 0,-1 0 14,-1 0 0,1 0 0,0-1-1,-1 1 1,1-1 0,-1 1 0,1-1 0,0 0-1,-1 0 1,0 0 0,1-1 0,-1 1 0,0-1 0,0 1-1,1-1 1,-1 0 0,-1 1 0,1-1 0,0 0-1,0 0 1,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0-1,-1-1 1,0 1 0,1-4 0,1-5 36,-1 0 1,0 0-1,0 0 1,-1 0-1,0-17 1,-2 26-43,1-1 0,-1 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 1 0,0-1 1,-1 0-1,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 1-1,1-1 0,0 1 1,-3-1-1,2 0-175,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,0 0 0,0 0 0,0 1 1,1-1-1,-5 3 0,0 4-4613</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:13:21.203"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">194 591 4930,'0'0'10253,"-1"-5"-9538,-5-121 3153,6 87-3576,-2 0-1,-2-1 0,-1 1 1,-19-76-1,11 75-103,7 19-58,-1 0 0,-1 1-1,-10-20 1,18 39-131,-1 1 1,0 0-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0 0 0,1 0 1,-1-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 1-1,0-1 1,1 0-1,-1 0 1,0 1-1,1-1 0,-1 0 1,1 1-1,-1-1 1,1 1-1,-1-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 1 1,0-1-1,-1 1 0,0 1 1,-23 28 1,21-26-7,-6 9-17,0 0 1,1 0-1,1 1 1,-7 16 0,20-45-12,1 1 1,0 0 0,1 1-1,0 0 1,1 0 0,1 1-1,18-19 1,-16 18 32,-10 10-4,0 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,6-2 0,-8 4-59,29 37-462,-19-24 106,-5-5 565,0-1-1,0 0 1,1 0 0,11 8-1,-15-13-909,1 0 0,0 0 1,0 0-1,-1 0 0,1-1 0,0 0 0,8 2 0,-1-1-5251</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:13:22.427"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">97 18 3762,'0'0'12640,"-3"-3"-11658,-8-9-102,8 10 900,4 36-1580,-2-24-125,4 64 239,2-1 1,20 94 0,-20-129-261,-2 0 0,-3 62 0,-1-42 30,1-58 36,-17-27 138,14 22-252,-16-19 19,1-1 1,1-1-1,-19-39 0,26 39 81,23 39-57,7 10-89,107 98 101,-126-121-58,-1 1 0,1 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,1-1 1,0-1 6,0 1 0,-1 0 0,0 0-1,1-1 1,-1 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,0 1 1,0-1 0,0-3 0,3-12-68,0-1 0,3-36 1,-5 29-391,2-5-435,-1 1-2012,0 11-2947,1 5-650</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:13:23.647"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">121 136 6131,'0'0'7502,"1"-9"-117,-3-32-7351,1 40-23,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,-1 1 1,1 0 0,0-1-1,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 1-1,0 0 1,1-1-1,-1 1 1,0 0-1,-1 1 1,-1 1-26,0 1 0,0-1-1,1 1 1,-1 0 0,1 0 0,0 0 0,0 1-1,0-1 1,1 1 0,-1 0 0,1 0 0,-2 7-1,0 0-3,1 0 0,1 0 0,0 0 0,0 1 0,1 17 0,1-26 13,-1-1 1,1 1-1,0-1 1,1 1-1,-1-1 1,1 1 0,-1-1-1,1 1 1,0-1-1,0 0 1,0 0-1,0 1 1,1-1-1,0 0 1,-1 0 0,1 0-1,0-1 1,0 1-1,0 0 1,1-1-1,-1 1 1,0-1-1,4 3 1,-4-4 8,-1 0-1,1-1 1,0 1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,0 0-1,-1 1 1,1-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1 0,0-1 0,-1 0-1,1 1 1,1-2 0,1-1 54,-1-1 0,0 1 0,0 0 0,-1-1 1,1 0-1,-1 1 0,3-6 0,9-13-3177,4 6-4783,-5 11 1103</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="399.78">284 64 4466,'0'0'10650,"0"76"-6864,0 87-3967,7-164-7484,0-6 1939</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1025.16">520 47 7251,'0'0'8714,"-5"-7"-7837,-18-23 30,22 30-863,0-1 1,1 0-1,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,-20 38-242,20-37 275,-2 6-84,1 0-1,0 0 1,0 0-1,1 0 1,0 0-1,0 0 1,1 1-1,0-1 1,0 0-1,2 13 1,-1-20-2,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-1-1 1,1 1-1,1-2 1,2 1-34,0-1 1,0 0-1,0 0 0,-1 0 1,1-1-1,-1 0 1,0 1-1,5-6 1,-5 1 103,0 0 1,0-1-1,-1 1 1,0-1-1,-1 0 1,1 1-1,-1-1 1,-1-15 0,1 37-62,1-1 1,0 0 0,1 0 0,0 0 0,0 0-1,7 12 1,-6-12 24,1-1-1,-2 1 1,1 0 0,-2 0-1,0 1 1,1 13 0,-3-26 2,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0-1,0-1 1,1 1 0,-1 0 0,0-1-1,0 1 1,0 0 0,0-1 0,1 1-1,-1-1 1,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-2 0,0 1-1,0 0 1,-2 0 0,1 0-155,-1 0 0,1 0 0,0 0-1,-1-1 1,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,-3-2 0,-2-6-5882,0 8-216</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:13:25.754"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">108 94 5122,'0'0'9458,"1"-9"-4983,1-29-3740,-2 35-719,-1 1-1,0 0 1,1-1 0,-1 1-1,0 0 1,0-1-1,0 1 1,-1 0-1,1 0 1,0 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 1 1,0-1 0,0 1-1,-3-2 1,3 3-18,1-1 1,0 0 0,-1 1 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,0 0 0,1 0-1,-1 1 1,1-1 0,-1 0 0,1 1-1,-1-1 1,1 1 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1-1 0,1 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1-1,0-1 1,-1 2 0,-3 6-9,1 0 0,-1 0 0,2 0 0,-1 1 0,2-1 0,-1 1 0,1 0 0,0 0 0,1 0 0,0 0 0,1 0-1,1 12 1,-1-16 8,0-1-1,1 1 0,0 0 0,0 0 0,0-1 1,1 1-1,0 0 0,0-1 0,0 0 0,1 1 1,-1-1-1,1 0 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1-1 0,1 0 0,-1 0 0,1 0 1,-1-1-1,8 4 0,-11-6 16,1 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1-1 1,-1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 0-1,0 0 1,0-1-1,2-2 1,3-2-300,0-2 1,-1 1-1,0-1 0,8-15 1,10-10-8578,-15 24 1007</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.25">321 122 6755,'0'0'9637,"-4"-8"-8917,1 2-546,0-1 1,1 0-1,-1 1 1,2-1-1,-1 0 1,1 0-1,-1-9 0,2 14-145,0 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,-1 0 1,1 0-1,0 0 0,3 1 0,-4-1-26,1 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,0 1-1,-1-1 1,1 1-1,-1-1 1,0 1-1,1 0 1,-1 0-1,1-1 1,-1 1-1,0 0 1,0 0-1,0 0 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 1-1,1 1 1,0 2 37,0 0 1,-1-1 0,1 1-1,-1 0 1,0 0 0,0 0 0,1 9-1,-2-2 44,0 0 0,0 0-1,-1 0 1,-1 0 0,0 0-1,-5 14 1,4-16-55,-2 0 0,1 0 0,-11 17 0,14-25-24,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,-1 0 0,1-1-1,0 1 1,0-1 0,-1 0-1,1 1 1,0-1 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1-1-1,-6 1 1,8-1-18,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1-1,1 1 1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,0 0 0,12-24-242,-11 23 250,1 0 0,-1 0 1,1 0-1,0 1 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 0,1-1 1,-1 1-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 1,0 0-1,0 0 0,0 0 1,5 2-1,4 3 49,-1 1 0,0 0 0,-1 0 0,17 15 0,-26-21-50,0 0-267,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,2 0 0,3-1-2380,7 1-2884</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="845.45">580 7 4018,'0'0'12251,"9"12"-10907,5 10-869,0-1-1,-2 2 1,0-1-1,-2 2 1,10 29-1,-6-7-12,13 53-190,-27-87-1667</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8278,7 +8247,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8313,7 +8282,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8345,7 +8314,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8373,7 +8342,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8398,146 +8367,6 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">43 133 2177,'0'0'8663,"0"-7"-7722,0-18 100,-1 12 5450,-2 19-5291,-1 19-1674,4 286 1530,0-311-1035,-8-19 81,-3-42-361,3-1 0,3-1 1,3-95-1,2 125 272,1 31-15,0 1 0,-1-1 0,1 0 0,0 1 0,-1 0 0,1-1 1,0 1-1,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,4-1 0,45-4-66,-42 4 64,0 1 1,1 1-1,-1 0 0,0 0 1,0 0-1,13 5 0,-19-5 2,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,0 1-1,0-1 0,-1 1 1,1 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 1 0,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 0,0-1 1,0 5-1,-1-1-9,0 0 0,-1 1 0,1-1 0,-1-1 1,0 1-1,-1 0 0,1 0 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 0 1,-1 0-1,0 0 0,1-1 0,-1 1 0,-1-1 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 1,-7 1-1,9-8-2676,4-4-3462,0 5 1747,0 0-1304</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:11.115"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 115 3282,'0'0'13614,"-3"-4"-12283,2 2-1064,0 1-174,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1 0 1,0-1-1,1 1 1,-1-1-1,0 1 1,1-3 1352,-1 8-1627,-4 29 173,1 0-1,1 0 0,2 1 1,6 63-1,-4-94 5,-1 1 0,1 0-1,0-1 1,0 1 0,1 0 0,-1-1-1,1 0 1,-1 1 0,1-1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,1 0 1,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,7 2 0,-3-1-39,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,1-1 0,-1 1 0,0-1 0,1-1 1,-1 1-1,9-3 0,-12 2 45,-1 0 0,1-1 1,0 0-1,-1 1 0,1-1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,0-1 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1-1-1,0 1 0,0-1 1,0 1-1,-1-1 0,1 0 1,-1 0-1,0 0 0,0 1 1,1-9-1,1-10 60,-1 0 0,-1 0 1,-2-35-1,0 24 6,3-11-81,0 30-79,-2 0-1,1 0 0,-2 0 1,1 1-1,-2-1 0,-3-16 1,4 27-649,-1-1-53</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:11.808"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 3 7187,'0'0'8500,"0"-3"-7924,0 9-512,0 9 161,0 8-1,0 2-160,-5 6-16,1-3-48,4 0 0,-4-3-977,-1-4-2304,-8-6-3122</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:12.334"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 0 8036,'0'0'6002,"-27"8"-6386,22 25 384,-4 8 48,5-3-48,0 0-192,4-5-832,-5-8-1473,5-4-3922</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:12.829"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9 0 2257,'0'0'10357,"0"18"-10773,0 13 352,0 9 48,0 4-193,0-1-463,0-5-688,-9-2-1746</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:13.384"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">59 46 5106,'0'0'7687,"-10"-8"-6666,-29-22 113,30 22 285,9 19-1693,3 114-878,8-40-5577,-3-54-298</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8589,6 +8418,146 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:11.115"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 115 3282,'0'0'13614,"-3"-4"-12283,2 2-1064,0 1-174,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1 0 1,0-1-1,1 1 1,-1-1-1,0 1 1,1-3 1352,-1 8-1627,-4 29 173,1 0-1,1 0 0,2 1 1,6 63-1,-4-94 5,-1 1 0,1 0-1,0-1 1,0 1 0,1 0 0,-1-1-1,1 0 1,-1 1 0,1-1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0-1,1 0 1,0-1 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0-1,0 0 1,7 2 0,-3-1-39,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,1-1 0,-1 1 0,0-1 0,1-1 1,-1 1-1,9-3 0,-12 2 45,-1 0 0,1-1 1,0 0-1,-1 1 0,1-1 1,-1 0-1,0-1 0,1 1 1,-1 0-1,0-1 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1-1-1,0 1 0,0-1 1,0 1-1,-1-1 0,1 0 1,-1 0-1,0 0 0,0 1 1,1-9-1,1-10 60,-1 0 0,-1 0 1,-2-35-1,0 24 6,3-11-81,0 30-79,-2 0-1,1 0 0,-2 0 1,1 1-1,-2-1 0,-3-16 1,4 27-649,-1-1-53</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:11.808"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">32 3 7187,'0'0'8500,"0"-3"-7924,0 9-512,0 9 161,0 8-1,0 2-160,-5 6-16,1-3-48,4 0 0,-4-3-977,-1-4-2304,-8-6-3122</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:12.334"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 0 8036,'0'0'6002,"-27"8"-6386,22 25 384,-4 8 48,5-3-48,0 0-192,4-5-832,-5-8-1473,5-4-3922</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:12.829"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9 0 2257,'0'0'10357,"0"18"-10773,0 13 352,0 9 48,0 4-193,0-1-463,0-5-688,-9-2-1746</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:13.384"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">59 46 5106,'0'0'7687,"-10"-8"-6666,-29-22 113,30 22 285,9 19-1693,3 114-878,8-40-5577,-3-54-298</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:18:06.286"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -8602,13 +8571,13 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="984.51">534 585 7940,'0'0'7619,"-9"7"-7747,9 9 128,-4 2-48,-1 3-640,5-6-481,0 6-1088,-4-6-512,4 3-2257</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2051.53">122 476 1393,'0'0'10757,"0"-1"-10655,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-2 0 0,-7 10 60,0 0 0,0 0-1,1 1 1,0 0 0,1 1-1,0-1 1,1 1 0,0 1-1,1-1 1,0 1-1,-3 16 1,8-29-159,-1 1 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 2 0,1-1 9,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 1,1-1-1,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,2-2 0,1 1 13,1-1 0,-1-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,-1-1 0,1 1 0,3-6 0,-3 0 3,0-1 0,-1 0 0,0 0 1,-1 0-1,0 0 0,-1-1 0,0 1 1,0 0-1,-1-1 0,-2-14 0,1-3-34,1 26-4,0 0 1,0 1 0,-1-1-1,1 0 1,-1 1 0,1-1-1,-1 0 1,0 1 0,0-1-1,0 1 1,1-1 0,-1 1-1,-1-1 1,1 1 0,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 1 0,0-1-1,1 1 1,-3-1 0,1 1-114,1-1 0,0 1 0,0-1 1,-1 1-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 1 1,1-1-1,0 1 0,0 0 0,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,-2 3 1,-15 21-3086,12-5-1871,6-9-761</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15003.37">1654 0 2897,'0'0'4848,"-6"9"-3098,-26 33-1446,17-24-182,1 1 0,-14 26 0,24-38-244,0 2 0,0-1 0,1 0 0,1 1 0,-1-1 0,1 1 0,1 0 0,0 0 0,-1 14 0,2 2-4464,0-21 1235</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15274.36">1511 140 3570,'0'0'3297,"36"-3"-3073,-19 11-16,1 5-128,0 2-48,5 1-32,-5 5 0,4-1-592,-9 1-1009,-4-3-368,-4-2-1216</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15274.35">1511 140 3570,'0'0'3297,"36"-3"-3073,-19 11-16,1 5-128,0 2-48,5 1-32,-5 5 0,4-1-592,-9 1-1009,-4-3-368,-4-2-1216</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15720.63">982 59 3650,'0'0'5954,"0"-8"-5954,0 19 32,0 7 160,0 8 129,-4 0-209,-5 5-96,0 0-16,0 0-288,0-3-433,0 1-815,5-6-1058,-5-8-527</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15890.68">919 194 3169,'0'0'6611,"77"-36"-6386,-46 36-161,5 0-48,4 0-16,9 15-112,10 1-1009,-6-1-2096</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8638,7 +8607,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8666,7 +8635,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8696,7 +8665,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8729,11 +8698,46 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3249.2">1501 287 1921,'0'0'9906,"1"-5"-8231,5-27 4325,-6 78-5794,1-42-209,-1 1 1,1-1-1,-1 0 0,1 1 1,1-1-1,-1 0 1,0 0-1,1 0 1,0 0-1,3 5 1,-4-8-11,-1 0 1,1 0-1,-1 0 1,1-1 0,0 1-1,-1 0 1,1 0 0,0-1-1,0 1 1,-1-1-1,1 1 1,0-1 0,0 1-1,0-1 1,0 1-1,-1-1 1,1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,-1-1-1,1 1 1,0-1 0,0 0-1,-1 1 1,1-1-1,0 0 1,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-3-1,4-5-12,-1 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,-1-1 0,2-16 0,-3 24-5,0 25-375,1 21 407,0-8-12,-5 50 0,3-77 26,-1-1 1,1 1-1,-2-1 0,1 0 0,-1 0 0,-1 0 0,1 0 0,-2 0 1,1-1-1,-8 12 0,10-19 53,1 1 1,-1-1-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 0-1,-1 1 0,1-1 1,-4 0-1,5 0-99,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,-1 0 1,1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0-1 1,0 0-1,1-33-5867,9 16 853</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3855.79">1697 276 7075,'0'0'8265,"0"3"-5661,0 1-2570,0 0 0,1 1 0,0-1 0,-1 0 1,2 0-1,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,2 0 0,-1 0 0,5 5 0,-5-6-32,0-2 0,-1 1 0,1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,4-1 0,-4-1 23,-1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 1,-1-1-1,0 1 0,1-1 0,-1 1 1,0-1-1,-1 1 0,2-6 1,12-46 928,-14 116-899,1-20-77,-6 72 0,4-108 22,-2 14-2,-1 0 1,-9 26-1,11-40 3,0-1-1,-1 1 1,0-1 0,0 0-1,0 1 1,0-1-1,-1-1 1,0 1-1,0 0 1,0-1 0,-1 0-1,-6 5 1,10-8 9,0 0 1,1-1 0,-1 1-1,0 0 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 0-1,0 1 1,-1-1 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0-1,0 0 1,0 0 0,0 0-1,0-2 1,-2-6-145,1 0 0,0-1 0,1 1 1,0 0-1,2-12 0,-1 17-193,0-1-1,1 1 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,4-4-1,40-33-8054,-24 26 1203</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4475.96">1965 281 4674,'0'0'9252,"0"-16"-5154,0 23-4056,1-1 0,-1 0 0,2 1 0,-1-1 0,1 0 0,-1 0-1,2 0 1,-1 0 0,1 0 0,0-1 0,5 9 0,-7-12-34,1 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0-1-1,0 1 1,1-2 0,1 0 84,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 1,0 0-1,0 0 0,0 0 0,-1-1 0,0 1 0,1-1 0,-2 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0-7 0,0 51-110,-2-1 0,-2 1 0,-1-1 0,-2 1 0,-2-2 0,-1 1 0,-19 46 0,26-77 34,-1-1 1,-1 0-1,1 0 1,-1-1-1,0 1 1,0-1-1,-1 0 1,-8 8-1,12-12 10,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1-1-1,1 1 1,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1-1,1-1 1,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,1-1 0,-2-1 0,-2-3-136,0-1 1,1 0-1,0 0 1,0 0-1,0-1 0,1 1 1,0-1-1,0 1 1,1-1-1,0 0 0,0 1 1,1-1-1,1-9 1,-1 11-433,1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,4-7 1,-3 9-307,-1-1-1,1 1 1,0 0 0,1 0 0,-1 0 0,1 0 0,0 1-1,0 0 1,5-4 0,14-7-4725</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5103.77">2250 279 4258,'0'0'9498,"8"-12"-5014,-8 18-4442,-1 0-9,1-1 1,0 1-1,1-1 0,0 1 1,-1 0-1,4 8 1,-3-12-31,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,2 0 1,-1 0-3,1 0 1,-1 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1-1 0,0 1 0,-1-1-1,1 0 1,3-3 0,-2 1 70,-1-1 0,0 0 1,-1 0-1,1 0 1,-1 0-1,0 0 0,0-1 1,-1 1-1,2-7 1,0 173 916,-2-129-974,0-14-6,-1 1 0,-4 30 0,4-44 1,-1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,0-1 1,0 0 0,0 1 0,0-1 0,-5 4 0,8-7 2,0 0 1,-1 0-1,1 0 0,0 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1 0 0,0-1 1,0 1-1,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,0 1 0,0 0 1,-1-1-1,1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 0,1-1 1,-1 1-1,4-31 749,1 18-929,0 1-1,1 0 1,0 0-1,1 0 1,0 0 0,1 1-1,0 1 1,1-1-1,15-13 1,3-1-664,1 1 0,41-27 0,-42 34-2031,44-21 0,-31 20-2726</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5103.76">2250 279 4258,'0'0'9498,"8"-12"-5014,-8 18-4442,-1 0-9,1-1 1,0 1-1,1-1 0,0 1 1,-1 0-1,4 8 1,-3-12-31,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,2 0 1,-1 0-3,1 0 1,-1 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1-1 0,0 1 0,-1-1-1,1 0 1,3-3 0,-2 1 70,-1-1 0,0 0 1,-1 0-1,1 0 1,-1 0-1,0 0 0,0-1 1,-1 1-1,2-7 1,0 173 916,-2-129-974,0-14-6,-1 1 0,-4 30 0,4-44 1,-1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0-1,0-1 1,0 0 0,0 1 0,0-1 0,-5 4 0,8-7 2,0 0 1,-1 0-1,1 0 0,0 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1 0 0,0-1 1,0 1-1,-1 0 0,1 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,0 1 0,0 0 1,-1-1-1,1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0 0 0,1-1 1,-1 1-1,4-31 749,1 18-929,0 1-1,1 0 1,0 0-1,1 0 1,0 0 0,1 1-1,0 1 1,1-1-1,15-13 1,3-1-664,1 1 0,41-27 0,-42 34-2031,44-21 0,-31 20-2726</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T14:46:15.200"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">90 113 3362,'0'0'10692,"0"29"-10502,-4 372 2670,-8-350-2625,12-51-223,0 1 0,0-1 1,0 0-1,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,-12-7 109,11 7-125,-32-38 24,14 20-8,33 47-289,-10-20 279,0 1 1,0-1-1,1 0 0,-1-1 0,2 1 0,9 11 1,-14-19-1,-1 0 1,0 0 0,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0-1 0,1 1-1,-1 0 1,0 0 0,0 0-1,0-1 1,8-15 79,4-32 26,-8 32-66,-1 3-516,6-15 1189,4 17-8130,-9 9 2645</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.62">319 231 3954,'0'0'8708,"10"-3"-6044,42-9-2503,-18 5-239,36-8 427,-65 13-526,0 0 0,0 1-1,0-1 1,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0-1,0 0 1,4-4 0,-7 5-1053,-9 1-8084</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="957.8">393 135 224,'0'0'11045,"7"26"-9535,-4-15-1073,-1 0 1,0 0-1,0 1 0,-1 18 1,-1 2-1951,0-12-1554</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1358.33">689 1 3762,'0'0'6184,"0"6"-5104,0 241 4245</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3749.7">250 709 3586,'0'0'8606,"0"-22"-3318,4 465-4712,-8-393-456,-25-68 366,15 4-521,0 0 1,0-1-1,1 0 0,1-1 0,-10-19 1,63 89-498,-37-49 536,1-1-1,-1 1 1,1-1 0,-1 0 0,1-1 0,0 1 0,0-1 0,1 0 0,-1 0-1,1-1 1,6 3 0,-11-5-9,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,-1-1 0,1 1 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 0 1,-1 0-1,1-1 0,5-35 59,-5 28-85,2-8-754,4-32 1679,-6 33-3950,0-1-3846</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4663.66">479 1040 704,'3'0'13025,"4"-1"-9520,32 0-3350,9 0 361,-37 1-3809,0 0-3958</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5129.97">562 955 4290,'0'0'5181,"0"5"-4829,0 109 3452,0-34-6591</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5810.77">689 951 3858,'0'0'12712,"0"22"-12565,8 168 552,-4-173-6899</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8771,7 +8775,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8796,14 +8800,14 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">15 7 8868,'0'0'13158,"0"13"-13315,2 25 169,9 53 1,-2-27 39,-1 111 207,-8-172-262,-1 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,-1 0 1,1 1-1,-1-1 1,0 0-1,0-1 0,0 1 1,0 0-1,-4 3 1,-13 6-2884</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="546.93">226 105 5491,'0'0'10452,"-1"5"-8659,-21 58-106,15-47-1502,1 1-1,1 0 0,0 0 1,1 1-1,1-1 0,-1 28 0,4-44-182,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,2 0 0,-1 0 0,0 0 0,0-1-1,0 1 1,1-1-1,-1 1 1,0-1 0,1 0-1,-1 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,5-2 1,-3 1 0,-1 0 1,1-1 0,-1 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,0-1-1,-1 1 1,1-1-1,-1 0 1,1 1 0,-1-1-1,0-1 1,0 1-1,0 0 1,-1 0-1,1-1 1,-1 1 0,1-1-1,-1 1 1,0-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1-1,0-1 1,-1 0-1,1 0 1,-1 1 0,1-1-1,-1 0 1,0 1-1,0-1 1,-1 1 0,1-1-1,-1 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 2 0,-1-1-1,1 0 1,-1 0-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1 0,-6-2-1,-23-2 246,31 5-372,0 0 0,0-1 1,0 1-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,1 0-1,-1 0 0,0 1 0,0-1 1,0 1-1,0-1 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,-1 1 0,3-2-100,-1 1 1,0-1-1,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,3-1-1252,18 1-5830</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="546.92">226 105 5491,'0'0'10452,"-1"5"-8659,-21 58-106,15-47-1502,1 1-1,1 0 0,0 0 1,1 1-1,1-1 0,-1 28 0,4-44-182,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,2 0 0,-1 0 0,0 0 0,0-1-1,0 1 1,1-1-1,-1 1 1,0-1 0,1 0-1,-1 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,5-2 1,-3 1 0,-1 0 1,1-1 0,-1 1-1,0-1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,0-1-1,-1 1 1,1-1-1,-1 0 1,1 1 0,-1-1-1,0-1 1,0 1-1,0 0 1,-1 0-1,1-1 1,-1 1 0,1-1-1,-1 1 1,0-1-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 1-1,0-1 1,-1 0-1,1 0 1,-1 1 0,1-1-1,-1 0 1,0 1-1,0-1 1,-1 1 0,1-1-1,-1 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 2 0,-1-1-1,1 0 1,-1 0-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1 0,-6-2-1,-23-2 246,31 5-372,0 0 0,0-1 1,0 1-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,1 0-1,-1 0 0,0 1 0,0-1 1,0 1-1,0-1 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,-1 1 0,3-2-100,-1 1 1,0-1-1,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,3-1-1252,18 1-5830</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="838.04">589 0 6067,'0'0'12408,"-17"6"-11880,-55 22-109,67-25-372,1 0 0,-1 0 0,1 0 1,0 1-1,0-1 0,0 1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,-2 9 0,-4 6 51,-16 28 129,6-14-95,2 1 0,0 1-1,3 1 1,-14 50 0,29-71 504,-1-9-2075</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1089.93">307 42 4610,'0'0'13526,"-11"-20"-13446,22 27-208,5 8 112,-1 2-128,4 5-1264,0 2-1394,4 0-1360,-4 2-3249</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1229.29">532 272 4930,'0'0'13254,"4"0"-13206,3 2-48,-3-2-928,0 0-3346</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8829,12 +8833,12 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">91 90 5170,'0'0'10832,"-4"-5"-10058,3 2-693,0 1 1,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 1 0,-5-3 1005,-14 33-879,13-11-187,0 1-1,1 0 1,1-1-1,1 2 1,1-1-1,0 0 1,2 1-1,0 19 0,1-37-29,0-1-1,1 1 0,-1 0 0,0-1 0,1 1 1,-1-1-1,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1-1-1,1 1 0,0 0 0,-1-1 0,1 1 1,-1-1-1,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,3-1 0,0 0-41,1 1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,-1 0 0,0 1 0,0-2 0,0 1 0,0-1 0,6-3 0,-6 0 26,0 1 0,0 0 0,0-1-1,-1 0 1,0 0 0,0 0 0,0-1 0,-1 0-1,0 1 1,0-1 0,-1 0 0,1 0-1,-2 0 1,2-11 0,-2 14 34,0 0 1,-1-1-1,0 1 0,0 0 1,0-1-1,-1 1 0,0 0 1,1 0-1,-1-1 0,-1 1 1,1 0-1,-1 0 0,1 0 0,-1 0 1,0 1-1,-1-1 0,1 0 1,0 1-1,-1 0 0,0-1 1,0 1-1,0 0 0,0 0 1,-1 1-1,-6-5 0,6 5 17,1 0 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-5 3 0,5-3-119,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 1,0 0-1,-1 0 0,1 0 0,-3 7 0,4-7-238,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,2 5 0,7 0-3893,12-4-2165</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="341.77">507 1 368,'0'0'9837,"-2"3"-8960,-77 123 5164,53-87-5532,2 0-1,-35 73 1,55-94-590,4-15-3295</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="559.83">260 7 7876,'0'0'5906,"11"0"-5986,8 0-16,8 7-672,-1 6-961,1-4-1152,-4 4-3474</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="559.82">260 7 7876,'0'0'5906,"11"0"-5986,8 0-16,8 7-672,-1 6-961,1-4-1152,-4 4-3474</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="723.18">570 212 7828,'0'0'6515,"4"13"-7140,-4-9-1408</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8867,7 +8871,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8895,42 +8899,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T14:46:15.200"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">90 113 3362,'0'0'10692,"0"29"-10502,-4 372 2670,-8-350-2625,12-51-223,0 1 0,0-1 1,0 0-1,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,-12-7 109,11 7-125,-32-38 24,14 20-8,33 47-289,-10-20 279,0 1 1,0-1-1,1 0 0,-1-1 0,2 1 0,9 11 1,-14-19-1,-1 0 1,0 0 0,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0-1 0,0 1-1,1 0 1,-1 0 0,0 0-1,0 0 1,0-1 0,1 1-1,-1 0 1,0 0 0,0 0-1,0-1 1,8-15 79,4-32 26,-8 32-66,-1 3-516,6-15 1189,4 17-8130,-9 9 2645</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.62">319 231 3954,'0'0'8708,"10"-3"-6044,42-9-2503,-18 5-239,36-8 427,-65 13-526,0 0 0,0 1-1,0-1 1,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0-1,0 0 1,4-4 0,-7 5-1053,-9 1-8084</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="957.8">393 135 224,'0'0'11045,"7"26"-9535,-4-15-1073,-1 0 1,0 0-1,0 1 0,-1 18 1,-1 2-1951,0-12-1554</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1358.33">689 1 3762,'0'0'6184,"0"6"-5104,0 241 4245</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3749.7">250 709 3586,'0'0'8606,"0"-22"-3318,4 465-4712,-8-393-456,-25-68 366,15 4-521,0 0 1,0-1-1,1 0 0,1-1 0,-10-19 1,63 89-498,-37-49 536,1-1-1,-1 1 1,1-1 0,-1 0 0,1-1 0,0 1 0,0-1 0,1 0 0,-1 0-1,1-1 1,6 3 0,-11-5-9,-1 0 1,1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,-1-1 0,1 1 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 0 1,-1 0-1,1-1 0,5-35 59,-5 28-85,2-8-754,4-32 1679,-6 33-3950,0-1-3846</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4663.66">479 1040 704,'3'0'13025,"4"-1"-9520,32 0-3350,9 0 361,-37 1-3809,0 0-3958</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5129.98">562 955 4290,'0'0'5181,"0"5"-4829,0 109 3452,0-34-6591</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5810.77">689 951 3858,'0'0'12712,"0"22"-12565,8 168 552,-4-173-6899</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8958,7 +8927,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -8983,13 +8952,13 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">89 77 7027,'0'0'10504,"0"-1"-10424,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 0 0,-6 7-81,0 0 0,1 0 0,0 1-1,0-1 1,1 1 0,0 1 0,0-1 0,1 1 0,-1-1 0,2 1 0,-1 0-1,-2 10 1,2-6-95,1 0-1,0 0 1,1 0-1,1 1 1,0-1-1,0 1 1,1-1-1,2 14 1,-2-24 49,0 0 1,1-1-1,-1 1 0,1 0 1,0-1-1,-1 1 0,1-1 1,0 1-1,0-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 1,1 1-1,-1-1 0,0 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 1,1-1-1,-1 1 0,1-1 1,0 0-1,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,3-1 1,1 1-16,-1-1 1,1 1-1,0-1 1,-1 0 0,1-1-1,-1 1 1,1-1-1,-1 0 1,0 0 0,0 0-1,7-5 1,-5 1 26,1-1-1,-1 1 1,0-2 0,0 1 0,-1 0 0,0-1 0,0 0-1,-1 0 1,6-17 0,-8 22 60,-1 0 0,0-1 1,0 1-1,-1 0 0,1-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,-1 1 0,1-1 0,0 1 1,-1 0-1,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,-1 0 0,1 1 0,-6-4 1,4 3 26,0 0 1,0 1 0,0-1 0,0 1-1,-1 0 1,1 1 0,0-1 0,-1 1-1,0 0 1,1 0 0,-1 0 0,1 1 0,-1-1-1,0 1 1,0 0 0,1 1 0,-8 1-1,9-2-126,1 1-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,0 1 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,-2 3 1,2-2-356,0-1 0,1 1 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,1 0 1,0 7-1,0-1-4303</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="214.21">288 144 8852,'0'0'8356,"-4"-13"-8468</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="214.2">288 144 8852,'0'0'8356,"-4"-13"-8468</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="570.87">417 1 9332,'0'0'6182,"0"18"-5521,4 212 1535</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1159.68">581 29 768,'0'0'14394,"0"-3"-13007,0 4-571,-19 113 347,19-106-1109,3 30 13,-3-37-63,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,0 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1-1 1,0 1-1,-1 0 0,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 1,1 0-1,4-3 21,-1 0 0,0-1-1,0 1 1,0-1 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 1 0,2-10 0,-3 10 62,0 1 1,0-1-1,-1 0 1,0 1-1,0-1 0,-1 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,0 0-1,-1-6 1,1 9-89,0 1 1,1 0-1,-1 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 1,1 0 0,0 1-1,-1-1 1,1 0-1,0 1 1,-1 0-1,1-1 1,-1 1 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,-2 1-1,-5 3-1469,-1 0 0,1 0 0,0 1 0,-9 9 0,2-1-6021</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1159.67">581 29 768,'0'0'14394,"0"-3"-13007,0 4-571,-19 113 347,19-106-1109,3 30 13,-3-37-63,0 0 1,0-1-1,1 1 0,-1 0 1,0-1-1,1 1 1,-1-1-1,0 1 0,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,0 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1-1 1,0 1-1,-1 0 0,1-1 1,-1 1-1,1 0 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 1,1 0-1,4-3 21,-1 0 0,0-1-1,0 1 1,0-1 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 1 0,2-10 0,-3 10 62,0 1 1,0-1-1,-1 0 1,0 1-1,0-1 0,-1 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,0 0-1,-1-6 1,1 9-89,0 1 1,1 0-1,-1 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 1,1 0 0,0 1-1,-1-1 1,1 0-1,0 1 1,-1 0-1,1-1 1,-1 1 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-1-1 1,1 1-1,0 0 1,-2 1-1,-5 3-1469,-1 0 0,1 0 0,0 1 0,-9 9 0,2-1-6021</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9014,7 +8983,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">57 370 11349,'0'0'9063,"-4"1"-8689,-11 2-174,11-3 146,4-39 1570,0 38-1954,0 0 1,0 1-1,0-1 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1 1 0,1-1 1,0 0-1,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 1,-1 0-1,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,0 1 1,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 1,0 0-1,0-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,-1 0-1,-6 6-4189,4 7-3437</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="539.35">242 50 2161,'0'0'16757,"0"0"-16722,0 0 0,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 1 0,-4 63 1333,2-51-1246,2 1 0,0-1 0,0 0 0,1 1 0,1-1 1,4 25-1,-5-35-128,1-1 0,0 1 0,0 0 0,0 0 0,0-1 1,1 1-1,-1-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0-1-1,-1 1 0,5-1 0,-2 0-33,1-1 0,-1 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,4-4 0,-3-1 102,0 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-14 0,-4 48 77,0-1 0,-2 0 0,-9 33 0,7-33-63,1 1 1,1 0 0,-2 37-1,6-60-242,-1 1 0,1-1 1,0 1-1,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,0 0 0,1 3 0,-1-4-113,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 0,0 0 0,-1 1 1,1-1-1,-1 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,0-1 0,-1 1 0,2-2 1,28-10-5430,6-6-2286</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="539.34">242 50 2161,'0'0'16757,"0"0"-16722,0 0 0,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,-1 1 0,-4 63 1333,2-51-1246,2 1 0,0-1 0,0 0 0,1 1 0,1-1 1,4 25-1,-5-35-128,1-1 0,0 1 0,0 0 0,0 0 0,0-1 1,1 1-1,-1-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 1,1-1-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0-1-1,-1 1 0,5-1 0,-2 0-33,1-1 0,-1 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,4-4 0,-3-1 102,0 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-14 0,-4 48 77,0-1 0,-2 0 0,-9 33 0,7-33-63,1 1 1,1 0 0,-2 37-1,6-60-242,-1 1 0,1-1 1,0 1-1,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,0 0 0,1 3 0,-1-4-113,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 0,0 0 0,-1 1 1,1-1-1,-1 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,0-1 0,-1 1 0,2-2 1,28-10-5430,6-6-2286</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1037.83">729 90 3554,'0'0'14537,"-5"-10"-13657,-16-26-367,21 36-507,0 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,-1-1-1,1 1 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,-7 15 140,7-16-133,-3 10 18,1-1-1,0 1 0,0-1 1,1 1-1,0 0 0,1 0 0,0 0 1,0 0-1,1-1 0,1 1 0,2 10 1,0-4 25,2 0 0,0 0 0,1-1 0,0 0 0,15 21 0,-22-35-58,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 1,0 0-1,-1 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,-1-1 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 0,-1 1 1,1-1-1,-1 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,0-1-1,-1 1 0,-1-1 0,-17-1-2411,3-12-3387,-8-48-2352,7-5 5956,16 60 2421,1 1 385,-1-1 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0-1,2 0 1,-1 0 0,0 0 0,1 0 0,2-8 0,-1 10-152,0 0 0,0 0 1,1 0-1,-1 0 0,1 1 0,0-1 1,0 1-1,0 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 1 1,1 0-1,7-4 0,5-2-383,55-24 1963,-64 29-3146,1 2 0,-1-1 1,0 1-1,1 0 1,7 0-1,-6 1-4666</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1443.41">1126 18 9476,'0'0'9189,"-5"9"-8915,-8 13-109,2 1-1,0 0 0,1 1 1,2 0-1,0 0 0,2 1 1,1 0-1,0 0 0,-1 39 1,6-63-167,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0-1 0,1 1 0,1-1 0,1 0 12,-1 0 0,0 0 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1-1 0,-1 1 0,1-1 1,-1 1-1,0-1 0,0 0 0,2-3 0,-3 4 11,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,-1 1 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,0-1-1,-1 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,0 1 1,0 0-1,0 0 0,-3-2 1,0 1-18,0 0 0,0 0-1,-1 1 1,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 1 0,-1-1 0,1 1 0,-11 2 0,1 7-660,11 2-3126</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1809.16">1278 61 11733,'0'0'7724,"-8"-4"-7647,8 4-77,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,47-9 217,-13 3 12,0 0 0,43 1 0,-76 5-215,1 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 3 0,1 0 72,-1 1 1,0-1-1,-1 1 0,1-1 1,-1 1-1,0 0 1,1 8-1,-1 4 291,0 1-1,-2 0 1,-2 22 0,1-28-258,-1-1-1,0-1 1,-1 1 0,-1 0 0,1-1 0,-1 0-1,-11 16 1,-12 26-2809,27-50 1022</inkml:trace>
@@ -9022,7 +8991,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9049,13 +9018,13 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">8 179 6867,'0'0'9450,"-1"-5"-8415,-5-42 4319,5 47-5092,1 3-425,14 234 14,-13-113 803,-1-92-2115,0-27-576,1-9-1175,0 1 2394,0-1 1,0 1 0,0 0 0,0-1-1,1 1 1,-1 0 0,1 0-1,0-1 1,4-4 0,-6 8 634,16-22-5500</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="676.01">208 155 6531,'0'0'8809,"-5"-4"-7731,-12-13-237,12 12 557,3 42-637,-7 46 1,3-46-491,0 47-1,2-1 147,32-87-404,-15-5-22,1-1 0,-1 0 0,-1-1 0,0 0 0,-1-1 0,0 0 0,0-1 0,-2 0 0,1 0 0,-2-1 0,0-1 0,11-25 0,-17 33 48,-1 0 1,0 0-1,0 0 0,0 0 1,0-11-1,-2 14 50,0 6-9,0 30 8,9 319 619,-8-351-1320,11-12-11145,1-8 5673</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1090.72">666 203 4818,'0'0'11352,"-3"-5"-10413,3 3-897,0 1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,0 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0 0 1,0 0-1,0-1 1,-2 1-1,0 1-1,1 0 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0-1,-1 4 1,0-2-11,0 0-1,0 0 1,1 1-1,-1 0 1,1-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,0 0 1,0 0-1,1 0 1,0 0-1,-1 0 0,2 1 1,-1-1-1,0 0 1,1 0-1,0 0 1,1 0-1,-1 0 1,3 6-1,1-1-16,0-1 0,0 0-1,1 0 1,0-1-1,0 1 1,1-1 0,0-1-1,1 1 1,16 11-1,-23-18 10,1 1-1,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 1,1 0-1,-1 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 2 0,0-2-55,0-1-1,1 1 1,-1 0-1,0-1 0,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,-1 0-1,1 0 1,0 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 1-1,-3-2 0,3 0-348,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1-1,0 1 1,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0-1 0,-1-28-6577</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1303.35">668 160 6275,'0'0'11525,"76"-68"-10885,-57 55-175,-4 2-209,1 0-160,-9 7-64,1 0-32,-4 4-2849,-1 13-1586,5 0-527</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1303.34">668 160 6275,'0'0'11525,"76"-68"-10885,-57 55-175,-4 2-209,1 0-160,-9 7-64,1 0-32,-4 4-2849,-1 13-1586,5 0-527</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2009.44">1084 260 7171,'0'0'9570,"-4"-8"-8690,2 5-786,-1 0 0,1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,0-1 0,-1 1 0,1-1-1,1 1 1,-1-1 0,0 0-1,1 1 1,0-1 0,0 1-1,0-1 1,0 0 0,1 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,1-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,1 1 0,3-4-1,0 0-43,0 1 0,0 0 1,1 0-1,-1 1 0,1 0 0,0 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 1 0,0 0 0,-1 0 1,1 1-1,0 0 0,0 1 0,15 0 0,-21 1-47,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,-1 1 0,1-1-1,-1 1 1,0 0 0,0-1-1,1 1 1,-1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,0 3 0,-2 62 119,-2-54-114,0 1 0,-1-1 0,-1 0 0,0 0 0,0-1 0,-1 0 0,-1 0 0,0 0 0,0-1 0,-13 13 0,-32 47-29,52-70 9,0 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 2 1,27-3-61,-27 0 77,9-2 135,0 0-1,0-1 1,0 0-1,-1-1 1,1 0-1,-1 0 1,0-1 0,0 0-1,-1 0 1,11-10-1,28-17 745,-26 11-7420,-13 11 1431,4-2-3375</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2556.24">1484 103 4770,'0'0'13316,"-3"-9"-12719,-6-28-263,8 36-304,1-1-1,0 0 1,0 0 0,1 0 0,-1 1 0,0-1-1,0 0 1,1 0 0,-1 0 0,1 1 0,0-1 0,0 0-1,-1 1 1,1-1 0,0 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 0 0,-1 1 0,4-2-1,0 0 103,1-1-1,-1 2 0,1-1 1,0 1-1,0 0 1,11-1-1,-15 2-122,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,0 2 0,-1 72 176,0-66-152,-1 1-2,1-1 0,-2 0 0,-6 20-1,6-21-161,0 0-1,0 0 0,1 0 1,1 0-1,-2 16 0,4-24 77,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0-1 0,4 1-1,16 10 12,-21-11 63,0 1-1,-1-1 1,1 1 0,0 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1-1-1,0 1 1,1 0 0,-1 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1-1 0,0 3-1,0-1 65,-1 0-1,0 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,-4 2 0,-59 28 811,61-30-949,-22 8-722</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2556.23">1484 103 4770,'0'0'13316,"-3"-9"-12719,-6-28-263,8 36-304,1-1-1,0 0 1,0 0 0,1 0 0,-1 1 0,0-1-1,0 0 1,1 0 0,-1 0 0,1 1 0,0-1 0,0 0-1,-1 1 1,1-1 0,0 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 0 0,-1 1 0,4-2-1,0 0 103,1-1-1,-1 2 0,1-1 1,0 1-1,0 0 1,11-1-1,-15 2-122,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,0 2 0,-1 72 176,0-66-152,-1 1-2,1-1 0,-2 0 0,-6 20-1,6-21-161,0 0-1,0 0 0,1 0 1,1 0-1,-2 16 0,4-24 77,1 1 0,-1-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0-1 0,4 1-1,16 10 12,-21-11 63,0 1-1,-1-1 1,1 1 0,0 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1-1-1,0 1 1,1 0 0,-1 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,-1-1 0,0 3-1,0-1 65,-1 0-1,0 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,-4 2 0,-59 28 811,61-30-949,-22 8-722</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9080,164 +9049,6 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">24 33 2609,'0'0'11451,"0"-5"-10168,0-17-299,0 17 2015,0 36-2823,0-2 117,0 65 917,-19 166 0,15-211 24,4-46-1050,0-10-691,0-9-772,0 13 878,0 0 0,0 0 1,1 1-1,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,3-3 0,11-13-6394,3 4-1734</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:41:29.392"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">44 48 20213,'0'1'0,"0"1"0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:41:35.142"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1385 453 3410,'0'0'7432,"-3"-4"-6647,-17-17 2612,10 11-2420,0-1-1,1 0 0,1 0 1,0-1-1,-11-19 1,18 27-954,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,1-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 1 1,1-1-1,0 1 1,-1-1-1,2 1 1,-1 0-1,0-1 1,1 1-1,0 0 1,0 0-1,0 0 1,5-6-1,81-108-349,-75 102-236,1 1 0,1 1-1,1 0 1,33-24 0,-44 35 100,0 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,8-1 0,15 5-8304,-20 4 3627</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="518.68">873 525 3986,'0'0'9063,"-8"-16"-7268,-71-119 2162,72 121-3840,1 0 0,1 0-1,0-1 1,0 0 0,2 0 0,-4-30 0,6 36-205,0-1 0,1 1 0,0 0 0,0-1 0,1 1 0,0 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,2 0 0,6-13 0,-6 18-375,-1-1-1,2 0 0,-1 1 1,0 0-1,1 0 1,0 0-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 1-1,0 0 0,0 0 1,0 0-1,0 1 1,0 0-1,0 0 1,9 1-1,16-1-4866</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1043.3">425 540 6051,'0'0'9108,"-9"-13"-7729,-49-90 1057,51 88-2224,1 0 0,0 0 0,1 0-1,0-1 1,1 0 0,-2-25 0,5 21-340,1-1 0,0 1 0,2 0 0,1 0 0,0 0 0,12-38 0,-12 50-230,0 0 1,1 1-1,0 0 1,0-1-1,1 1 0,-1 1 1,1-1-1,10-8 1,-11 11-225,1 0 1,0 0 0,0 1 0,1-1 0,-1 1 0,0 1 0,1-1 0,0 1-1,0 0 1,0 0 0,0 1 0,10-2 0,8 2-3421</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1493.18">92 461 7347,'0'0'9989,"-80"-82"-9237,72 62-79,4-4-145,4-2-224,0-2-288,0-7-16,15-6-96,12-2-64,3 1-801,5 7-911,-1 9 559,-4 11-2977,1 4 352</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:41:30.648"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 140 144,'0'0'13982,"0"-5"-12512,0-13-475,0 4 4299,0 37-5100,1 24-28,1-26-95,-2-1 1,0 1-1,-1-1 1,-1 0 0,-9 38-1,11-57-70,1-1-1,-1 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 1,0-1-1,25-3 47,-19 1-64,-1 1-1,1-1 1,0-1-1,-1 1 1,1-1-1,-1 0 1,0-1 0,0 1-1,-1-1 1,1 0-1,-1 0 1,0-1-1,-1 0 1,1 0 0,-1 0-1,-1 0 1,1-1-1,-1 1 1,0-1-1,0 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,0 1-1,-1-14 1,-8 94 32,-14 155 866,21-183-582,0-35-5918,12-24 625,6-7-2286</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="391.98">378 221 5763,'0'0'11816,"-5"-7"-11059,-19-21-223,23 28-522,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 0 0,0 1 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1-1 0,0 1 1,0 0-1,-1-1 0,1 1 1,-11 26 199,10-26-196,0 2 11,0 1-1,0 0 0,0 0 0,0 0 0,0-1 0,1 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0-1 0,1 1 1,2 6-1,2-3 10,-1 0 1,1 0 0,1 0 0,-1-1-1,1 0 1,9 6 0,-8-6 5,0 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,7 13 0,-13-19-10,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-3 0 0,2 0-243,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1-1 1,-1 1-1,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 1,-4-1-1,3-7-3711,4-9-1422</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="607.59">315 205 7940,'0'0'8403,"95"-67"-8306,-60 52-65,-9-1 32,5 6-48,-8 1 32,-8 2-48,-4 1-32,-7 6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1681.99">1030 162 7059,'0'0'10146,"0"0"-10106,0 0-1,-1-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,0 1-1,-1-1 1,1 0-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 0 1,0 1-1,-1-1 0,1 0 1,0 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-211 253 3173,225-269-18451,-6-2 9319</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1986.25">833 184 2657,'0'0'11272,"1"-1"-11205,-1 1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,2 1 0,17 23 792,-1 1 0,-1 1 1,22 46-1,-11-20-169,-24-46-504,0 1-1,-1 0 0,0 0 0,0 0 0,-1 0 1,2 12-1,11-20-7914,-7 0 1910</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2373.3">1213 194 2657,'0'0'13876,"0"-8"-12299,1 72 54,1-24-730,-2-1 1,-10 74-1,8-99-2177,19-32-18628</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2914.81">1379 210 4946,'0'0'10757,"0"-3"-9186,0 5-962,-1 9-287,-1-1 1,0 1-1,-1-1 0,0 0 0,0 0 1,-7 13-1,5-10-60,0 1-1,0-1 1,-2 17 0,5-18-170,0 1 0,0 0 0,2-1 1,-1 1-1,2 0 0,3 23 0,-4-34-88,1-1 1,0 1-1,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 1,0 1-1,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,2-1 0,0 1 16,0-1 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,6-4 1,-2 0 6,0-1 0,-1 0 0,0 0 1,0-1-1,0 0 0,-1 0 0,7-13 0,-10 15-13,-1 1 0,0-1 0,0 0-1,0-1 1,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1-1,0-1 1,-1 1 0,1 0 0,-3-10 0,1 10-13,0 1 0,0-1 0,-1 0 0,0 1 1,0 0-1,0-1 0,0 1 0,-1 1 0,0-1 0,0 0 1,-1 1-1,1 0 0,-1 0 0,-6-4 0,8 6-12,0-1 1,0 1-1,-1-1 0,0 1 1,1 0-1,-1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0 1 0,0-1 1,0 0-1,0 1 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 1 0,0 0 1,-8 2-1,10-2-86,-1 1 1,1-1-1,-1 1 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,1 1 1,-1-1-1,1 1 0,-2 4 1,-4 24-7350,7-24 2396</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7403.31">1612 16 4258,'0'0'8777,"0"-16"-6114,-3 175-1385,3-158-1241,9-2 0,0 0 0,0-1-1,0 0 1,-1 0 0,1-1-1,0 0 1,-1 0 0,9-6 0,62-40-349,-77 48 343,0-1 0,0 0-1,-1 0 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,-1 1 0,1-1-1,0 0 1,-2-2 0,2 5 351,-2 60-310,1-36 38,0 1 1,2-1-1,0 1 1,8 38-1,-8-36-990,-1-17-3549,0-5 227</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:41:39.587"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 161 6339,'0'0'7590,"-3"-8"-6984,3 65 778,0 154 1603,0-71-4456,0-139 1176,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,2 1-1,9 2-8643</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="156">187 427 5859,'0'0'2497</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="597.09">301 209 8500,'0'0'8278,"0"8"-8086,-1 4 26,-1 4-8,0 0 1,2 0-1,0 0 1,1 0-1,5 26 0,-5-39-201,-1 0-1,1 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,1-1 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,6-1 1,-5 1-13,-1 0 1,1-1-1,-1 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,-1 0 0,1 1 1,-1-1-1,0 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,1-1-1,-1 1 1,0-1-1,0 1 0,0-1 1,1-4-1,7-60 640,-7 95-469,-4 46-1,0-50-480,1 1-1,2-1 0,3 27 0,4-26-2707,-8-22 2633,1-1-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,2 0-1,9 0-4772</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="860.13">583 335 2001,'0'0'5570,"0"-12"-2928,-1-15-1676,0 0 3275,3 57-1954,1 4-1775,10 52 1,-11-75-441,1-1-1,0 1 1,0-1 0,1 0-1,1 0 1,0 0 0,0 0 0,1-1-1,6 9 1,-10-16-309,0 0 0,0-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 0,3 1 1,-5 0 50,1-1-1,-1 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-2-1,4-13-4922</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1029.11">636 390 3458,'0'0'12133,"-50"-16"-12133,50 14-320,4 2 208,8-2-160,-1-2-1489,0-3-960,1-1-625,-8-3-1360</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1168.49">539 277 3602,'0'0'10965,"-26"-22"-10965,56 18 0,4-3-673,12 7-1216,-4-2-416,3 0-2417</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1382.6">996 185 9204,'0'0'10485,"-95"105"-9989,76-73-144,3 1-256,5-1-96,7-3-16,0-1-368,4-11-1008,0-1-1650,0-10-2192</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1598.34">851 224 1905,'0'0'15727,"0"0"-15715,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,11 13 351,0 1 0,-2 1 0,1 0 0,12 30 0,-8-18-241,-3-6-540,-5-7 562,1-1 0,1-1 1,0 1-1,9 11 0,-14-21-501,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,0-1 0,5 3 0,-6-3-405,1-1 1,-1 0-1,0 0 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 0 1,0 0-1,4 0 1,11-4-5952</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1847.47">1271 1 6051,'0'0'11989,"-4"67"-11236,4-30-481,0-2 16,0-3-288,0-3 16,0-3-16,0-9-400,12-4-705,3-6-2336,0-7-1330,4 0-4881</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:42:04.904"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">126 0 1777,'0'0'3124,"-7"5"-2780,-2 2 7,1 1 1,-1 0-1,1 0 1,0 0-1,1 1 1,0 1-1,1-1 0,0 1 1,0 0-1,1 0 1,0 1-1,1 0 1,-3 11-1,0 4 318,1 1 0,2 0 0,1 0 0,0 49 0,5-11-117,2 0-1,20 95 0,-21-148-515,0 0 0,1 0 0,0 0 0,1-1 0,0 1 0,1-1 0,0-1 0,11 14 0,-14-19-28,1 0 0,0-1 0,0 1-1,1-1 1,-1 0 0,1-1 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,1-1 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 0 0,0 0 0,7 0-1,-6 0 15,-1-1-1,1 0 1,0 0-1,0 0 0,0-1 1,0 0-1,0-1 0,-1 1 1,1-1-1,0-1 0,-1 1 1,0-1-1,0 0 0,0-1 1,0 1-1,0-1 0,0 0 1,9-10-1,-1 1 94,-1-1 0,0-1 0,0 0 0,19-32 0,-27 37 1,0 0 0,-1 0-1,0-1 1,0 0 0,-1 1 0,-1-1 0,1 0 0,-2 0 0,1-22 0,-2 5 3,1 15-56,0 1 0,-1 0 0,-1 0 0,0-1 0,0 1 0,-2 0 0,1 0 0,-2 0-1,1 1 1,-8-16 0,1 9 3,-7-15 199,-35-50 0,45 74-108,-1 0 1,0 0-1,0 1 1,0 0 0,-1 0-1,0 1 1,-1 0 0,0 1-1,-15-8 1,11 7-142,1 1-1,-1 1 1,0 1 0,0-1 0,0 2-1,-1 0 1,1 1 0,-1 1 0,-26 0-1,39 1-156,1 0-1,-1 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,0 0 1,1-1-1,-1 1 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 1 1,0-1-1,-2 3 0,-9 18-5198,5-5-25</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9285,6 +9096,164 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:41:29.392"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">44 48 20213,'0'1'0,"0"1"0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:41:35.142"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1385 453 3410,'0'0'7432,"-3"-4"-6647,-17-17 2612,10 11-2420,0-1-1,1 0 0,1 0 1,0-1-1,-11-19 1,18 27-954,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,1-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 1 1,1-1-1,0 1 1,-1-1-1,2 1 1,-1 0-1,0-1 1,1 1-1,0 0 1,0 0-1,0 0 1,5-6-1,81-108-349,-75 102-236,1 1 0,1 1-1,1 0 1,33-24 0,-44 35 100,0 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,8-1 0,15 5-8304,-20 4 3627</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="518.68">873 525 3986,'0'0'9063,"-8"-16"-7268,-71-119 2162,72 121-3840,1 0 0,1 0-1,0-1 1,0 0 0,2 0 0,-4-30 0,6 36-205,0-1 0,1 1 0,0 0 0,0-1 0,1 1 0,0 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,2 0 0,6-13 0,-6 18-375,-1-1-1,2 0 0,-1 1 1,0 0-1,1 0 1,0 0-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 1-1,0 0 0,0 0 1,0 0-1,0 1 1,0 0-1,0 0 1,9 1-1,16-1-4866</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1043.3">425 540 6051,'0'0'9108,"-9"-13"-7729,-49-90 1057,51 88-2224,1 0 0,0 0 0,1 0-1,0-1 1,1 0 0,-2-25 0,5 21-340,1-1 0,0 1 0,2 0 0,1 0 0,0 0 0,12-38 0,-12 50-230,0 0 1,1 1-1,0 0 1,0-1-1,1 1 0,-1 1 1,1-1-1,10-8 1,-11 11-225,1 0 1,0 0 0,0 1 0,1-1 0,-1 1 0,0 1 0,1-1 0,0 1-1,0 0 1,0 0 0,0 1 0,10-2 0,8 2-3421</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1493.17">92 461 7347,'0'0'9989,"-80"-82"-9237,72 62-79,4-4-145,4-2-224,0-2-288,0-7-16,15-6-96,12-2-64,3 1-801,5 7-911,-1 9 559,-4 11-2977,1 4 352</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:41:30.648"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">11 140 144,'0'0'13982,"0"-5"-12512,0-13-475,0 4 4299,0 37-5100,1 24-28,1-26-95,-2-1 1,0 1-1,-1-1 1,-1 0 0,-9 38-1,11-57-70,1-1-1,-1 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 1,0-1-1,25-3 47,-19 1-64,-1 1-1,1-1 1,0-1-1,-1 1 1,1-1-1,-1 0 1,0-1 0,0 1-1,-1-1 1,1 0-1,-1 0 1,0-1-1,-1 0 1,1 0 0,-1 0-1,-1 0 1,1-1-1,-1 1 1,0-1-1,0 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,0 1-1,-1-14 1,-8 94 32,-14 155 866,21-183-582,0-35-5918,12-24 625,6-7-2286</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="391.97">378 221 5763,'0'0'11816,"-5"-7"-11059,-19-21-223,23 28-522,1-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 0 0,0 1 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1-1 0,0 1 1,0 0-1,-1-1 0,1 1 1,-11 26 199,10-26-196,0 2 11,0 1-1,0 0 0,0 0 0,0 0 0,0-1 0,1 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0-1 0,1 1 1,2 6-1,2-3 10,-1 0 1,1 0 0,1 0 0,-1-1-1,1 0 1,9 6 0,-8-6 5,0 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,7 13 0,-13-19-10,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-3 0 0,2 0-243,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1-1 1,-1 1-1,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 1,-4-1-1,3-7-3711,4-9-1422</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="607.59">315 205 7940,'0'0'8403,"95"-67"-8306,-60 52-65,-9-1 32,5 6-48,-8 1 32,-8 2-48,-4 1-32,-7 6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1681.99">1030 162 7059,'0'0'10146,"0"0"-10106,0 0-1,-1-1 1,1 1-1,-1 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,0 1-1,-1-1 1,1 0-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 0 1,0 1-1,-1-1 0,1 0 1,0 1-1,0-1 1,-1 1-1,1-1 1,0 1-1,-211 253 3173,225-269-18451,-6-2 9319</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1986.25">833 184 2657,'0'0'11272,"1"-1"-11205,-1 1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 1,1 1-1,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,2 1 0,17 23 792,-1 1 0,-1 1 1,22 46-1,-11-20-169,-24-46-504,0 1-1,-1 0 0,0 0 0,0 0 0,-1 0 1,2 12-1,11-20-7914,-7 0 1910</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2373.3">1213 194 2657,'0'0'13876,"0"-8"-12299,1 72 54,1-24-730,-2-1 1,-10 74-1,8-99-2177,19-32-18628</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2914.81">1379 210 4946,'0'0'10757,"0"-3"-9186,0 5-962,-1 9-287,-1-1 1,0 1-1,-1-1 0,0 0 0,0 0 1,-7 13-1,5-10-60,0 1-1,0-1 1,-2 17 0,5-18-170,0 1 0,0 0 0,2-1 1,-1 1-1,2 0 0,3 23 0,-4-34-88,1-1 1,0 1-1,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1-1 1,0 1-1,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,2-1 0,0 1 16,0-1 1,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,6-4 1,-2 0 6,0-1 0,-1 0 0,0 0 1,0-1-1,0 0 0,-1 0 0,7-13 0,-10 15-13,-1 1 0,0-1 0,0 0-1,0-1 1,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1-1,0-1 1,-1 1 0,1 0 0,-3-10 0,1 10-13,0 1 0,0-1 0,-1 0 0,0 1 1,0 0-1,0-1 0,0 1 0,-1 1 0,0-1 0,0 0 1,-1 1-1,1 0 0,-1 0 0,-6-4 0,8 6-12,0-1 1,0 1-1,-1-1 0,0 1 1,1 0-1,-1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0 1 0,0-1 1,0 0-1,0 1 0,0 0 0,-1 0 1,1 0-1,0 0 0,0 1 0,0 0 1,-8 2-1,10-2-86,-1 1 1,1-1-1,-1 1 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,1 1 1,-1-1-1,1 1 0,-2 4 1,-4 24-7350,7-24 2396</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7403.31">1612 16 4258,'0'0'8777,"0"-16"-6114,-3 175-1385,3-158-1241,9-2 0,0 0 0,0-1-1,0 0 1,-1 0 0,1-1-1,0 0 1,-1 0 0,9-6 0,62-40-349,-77 48 343,0-1 0,0 0-1,-1 0 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,-1 1 0,1-1-1,0 0 1,-2-2 0,2 5 351,-2 60-310,1-36 38,0 1 1,2-1-1,0 1 1,8 38-1,-8-36-990,-1-17-3549,0-5 227</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:41:39.587"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4 161 6339,'0'0'7590,"-3"-8"-6984,3 65 778,0 154 1603,0-71-4456,0-139 1176,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,2 1-1,9 2-8643</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="156">187 427 5859,'0'0'2497</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="597.09">301 209 8500,'0'0'8278,"0"8"-8086,-1 4 26,-1 4-8,0 0 1,2 0-1,0 0 1,1 0-1,5 26 0,-5-39-201,-1 0-1,1 0 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,1-1 1,-1 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,6-1 1,-5 1-13,-1 0 1,1-1-1,-1 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,-1 0 0,1 1 1,-1-1-1,0 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,1-1-1,-1 1 1,0-1-1,0 1 0,0-1 1,1-4-1,7-60 640,-7 95-469,-4 46-1,0-50-480,1 1-1,2-1 0,3 27 0,4-26-2707,-8-22 2633,1-1-1,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,2 0-1,9 0-4772</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="860.13">583 335 2001,'0'0'5570,"0"-12"-2928,-1-15-1676,0 0 3275,3 57-1954,1 4-1775,10 52 1,-11-75-441,1-1-1,0 1 1,0-1 0,1 0-1,1 0 1,0 0 0,0 0 0,1-1-1,6 9 1,-10-16-309,0 0 0,0-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 0,3 1 1,-5 0 50,1-1-1,-1 0 1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-2-1,4-13-4922</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1029.1">636 390 3458,'0'0'12133,"-50"-16"-12133,50 14-320,4 2 208,8-2-160,-1-2-1489,0-3-960,1-1-625,-8-3-1360</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1168.49">539 277 3602,'0'0'10965,"-26"-22"-10965,56 18 0,4-3-673,12 7-1216,-4-2-416,3 0-2417</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1382.6">996 185 9204,'0'0'10485,"-95"105"-9989,76-73-144,3 1-256,5-1-96,7-3-16,0-1-368,4-11-1008,0-1-1650,0-10-2192</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1598.34">851 224 1905,'0'0'15727,"0"0"-15715,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,11 13 351,0 1 0,-2 1 0,1 0 0,12 30 0,-8-18-241,-3-6-540,-5-7 562,1-1 0,1-1 1,0 1-1,9 11 0,-14-21-501,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,0-1 0,5 3 0,-6-3-405,1-1 1,-1 0-1,0 0 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 0 1,0 0-1,4 0 1,11-4-5952</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1847.47">1271 1 6051,'0'0'11989,"-4"67"-11236,4-30-481,0-2 16,0-3-288,0-3 16,0-3-16,0-9-400,12-4-705,3-6-2336,0-7-1330,4 0-4881</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:42:04.904"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">126 0 1777,'0'0'3124,"-7"5"-2780,-2 2 7,1 1 1,-1 0-1,1 0 1,0 0-1,1 1 1,0 1-1,1-1 0,0 1 1,0 0-1,1 0 1,0 1-1,1 0 1,-3 11-1,0 4 318,1 1 0,2 0 0,1 0 0,0 49 0,5-11-117,2 0-1,20 95 0,-21-148-515,0 0 0,1 0 0,0 0 0,1-1 0,0 1 0,1-1 0,0-1 0,11 14 0,-14-19-28,1 0 0,0-1 0,0 1-1,1-1 1,-1 0 0,1-1 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,1-1 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 0 0,0 0 0,7 0-1,-6 0 15,-1-1-1,1 0 1,0 0-1,0 0 0,0-1 1,0 0-1,0-1 0,-1 1 1,1-1-1,0-1 0,-1 1 1,0-1-1,0 0 0,0-1 1,0 1-1,0-1 0,0 0 1,9-10-1,-1 1 94,-1-1 0,0-1 0,0 0 0,19-32 0,-27 37 1,0 0 0,-1 0-1,0-1 1,0 0 0,-1 1 0,-1-1 0,1 0 0,-2 0 0,1-22 0,-2 5 3,1 15-56,0 1 0,-1 0 0,-1 0 0,0-1 0,0 1 0,-2 0 0,1 0 0,-2 0-1,1 1 1,-8-16 0,1 9 3,-7-15 199,-35-50 0,45 74-108,-1 0 1,0 0-1,0 1 1,0 0 0,-1 0-1,0 1 1,-1 0 0,0 1-1,-15-8 1,11 7-142,1 1-1,-1 1 1,0 1 0,0-1 0,0 2-1,-1 0 1,1 1 0,-1 1 0,-26 0-1,39 1-156,1 0-1,-1 1 0,0-1 0,0 1 1,1-1-1,-1 1 0,0 0 1,1-1-1,-1 1 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,1 1 1,0-1-1,-2 3 0,-9 18-5198,5-5-25</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:46:07.508"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -9298,7 +9267,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9327,7 +9296,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9355,7 +9324,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9387,7 +9356,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9417,7 +9386,36 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T17:57:53.155"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">226 54 8612,'0'0'9927,"0"-7"-9241,0-39 941,-27 46-1432,23 0-198,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 1 0,-2 2 0,-43 47-11,34-35-1,4-4 15,0 1 0,1 0-1,1 1 1,0 0 0,2 0-1,-1 1 1,2-1 0,0 1-1,0 1 1,2-1 0,0 1 0,1-1-1,1 1 1,0 0 0,1 0-1,4 27 1,-3-41 2,-1 0-1,1 0 1,-1 1 0,1-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,1-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 0-1,5 1 1,5 0 9,0 0 1,0 0-1,0-2 0,1 1 0,15-3 1,-21 1-9,-1-1 0,1 0 0,-1 0 0,0-1 1,0 0-1,0 0 0,0-1 0,-1 0 0,1 0 1,9-8-1,-4 2-7,0 0 1,-1-1 0,0 0 0,12-16-1,-16 16 3,0 0-1,-1 0 0,0-1 1,-1 0-1,-1 0 0,1 0 0,-2-1 1,4-21-1,-2-3 19,-2-65 0,-3 99-16,0 0-1,-1 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,-1-1 1,1 1 0,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,-4 1-1,-5-2-7,1 1-1,-1 0 1,1 1 0,-1 0-1,1 1 1,-14 2-1,24-3-60,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1-1,1 1 1,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0-1,1 0 1,0 2 0,1 1-850,1 0-1,-1 0 0,1-1 1,-1 1-1,1-1 0,0 0 1,0 1-1,1-2 0,-1 1 1,8 5-1,11 4-4982</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1332.67">592 209 7924,'0'0'10669,"-12"-4"-9381,71 11-1085,0-1 0,79-4-1,-102-3-735,-35 1 453,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1-1,0 0 1,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1-1,0 0 1,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0-1,-1-1 1,1 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,-15-16-826,-7 7 813,16 7 473,-1-1 1,1 0-1,0 0 1,0-1 0,0 1-1,0-2 1,1 1-1,-8-7 1,15 10-352,-1 1 1,0-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,1 0 0,0 0 1,-1-1-1,1 1 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 1-1,1-1 0,31 0-126,-30 0 95,1 1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 1-1,-1 0 1,0-1 0,0 1 0,-1 0-1,1 1 1,0-1 0,0 0 0,-1 1-1,0-1 1,3 4 0,-4-4 14,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,0 0-1,-1 0 0,1 0 0,-1 0 1,0 0-1,1-1 0,-1 1 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 1,-1-1-1,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,-4 2 1,-4 3 137,0 0 1,-1-1-1,0 0 1,0-1-1,-14 6 1,12-7-144,1 2 0,0 0 0,0 0 0,-14 11 1,23-15 501,20-1-20054</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9444,12 +9442,12 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3078 803 3249,'0'0'14258,"-5"-2"-13477,4 1-766,1 1-1,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 2 1,-6 39 1068,7-36-903,-1 6 1,0 29 200,1-39-364,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,0-1 1,-1 1-1,1 0 0,-1-1 1,1 1-1,0-1 0,0 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 1,0 0-1,0 0 0,1 1 1,0-6 103,-1 0 1,0-1 0,-1 1-1,1 0 1,-1 0 0,0 0-1,0 0 1,-1 0 0,-1-8-1,-17-5-1397,16 16-1057,12 7-334,-9-5 2660,3 1-832,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,4 0 0,15 0-5153</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="605.65">3430 629 4994,'0'0'12177,"-5"-7"-10852,0-1-985,3 6-218,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,-1 0 0,-4-3 0,6 4 668,-2 30-569,2-15-118,-1-1-42,1 1-1,1-1 1,0 0 0,0 1 0,2-1 0,2 15 0,-3-24-64,0-1 1,1 0 0,-1 0 0,1 1 0,0-1-1,-1 0 1,1 0 0,1 0 0,-1-1-1,0 1 1,1-1 0,-1 1 0,1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1-1,0 1 1,1-1 0,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,1-1 0,4 0 0,-3 1-36,1 0 0,-1-1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,8-5 0,-12 5 15,1 0 1,0-1-1,0 1 0,-1-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,0-1 1,1 1-1,-1-1 0,0 1 0,-1 0 1,1-1-1,-1 0 0,1-3 0,2-60 392,-3 66-137,0 5-115,-8 134 224,3-82-211,4 85-1,1-138-248,0 0 0,0 0-1,1 0 1,-1 1-1,1-1 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,1 0-1,0 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1 0,1 0-1,-1 0 1,5 4-1,-3-5-576,-1 1-1,1-1 0,0 1 1,0-1-1,0 0 1,0 0-1,0-1 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,6-3-1,21-9-7648</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="898.13">3902 590 5763,'0'0'10084,"-3"5"-9825,1-1-204,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,2 3 0,5 11 126,2 0 0,24 31 0,-26-39-94,-1 0-1,0 1 1,-1 0 0,0 0 0,0 1-1,-2 0 1,1 0 0,4 18 0,-10-29-125,1 0 1,-1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0-1,0 1 1,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0-1,1 1 1,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0-1,0-1 1,0 1 0,-1 0 0,1-1 0,0 0 0,-1 1 0,1-1-1,0 0 1,-1 0 0,-1 0 0,1 1-537,-1-1 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1-1,1-1 1,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1-1,-3-3 1,-7-15-4503</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1051.14">3917 627 6515,'0'0'7587,"61"-94"-5794,-42 81-544,0 0-369,0 0-464,0 7-271,4-3-129,-4 7-32,0 2-369,0 0-1856,-4 2-2081,4 7-3953</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1051.13">3917 627 6515,'0'0'7587,"61"-94"-5794,-42 81-544,0 0-369,0 0-464,0 7-271,4-3-129,-4 7-32,0 2-369,0 0-1856,-4 2-2081,4 7-3953</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1428.08">4427 483 1377,'0'0'17477,"-15"14"-16959,0-3-359,7-6-89,1 1 1,1-1-1,-1 1 0,1 1 0,0-1 0,0 1 1,0 0-1,1 0 0,0 1 0,1-1 1,0 1-1,-5 12 0,3 0 0,0 0-1,2 0 1,0 1 0,2-1 0,0 1-1,1-1 1,3 39 0,-1-55-77,0 1 0,0-1 0,1 0 0,-1 0 1,1 0-1,0 0 0,0 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,8 5 0,-9-6 5,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1-1-1,-1 1 1,0-1-1,1 1 0,-1-1 1,1 0-1,-1 0 0,1 0 1,-1-1-1,1 1 1,-1 0-1,0-1 0,1 0 1,-1 1-1,1-1 0,-1 0 1,0 0-1,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,-1 0 0,4-4 1,-4 5 29,1-1-1,-1 0 1,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,-1 1 0,1-1 0,0 0-1,-1 1 1,1-1 0,-1 1 0,1-1-1,-1 1 1,0 0 0,1 0-1,-1 0 1,-2-1 0,-2-1-8,0 0 0,1 1 0,-1 0 0,0 0 0,0 0 1,0 1-1,-1 0 0,1 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,-9 2 1,11 0-59,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 1 1,0 1-1,1-1 0,-1 1 0,-5 5 0,-23 27-4018,28-30 2568,-14 16-7470</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3503.64">34 777 7523,'0'0'6820,"-4"-9"-6151,4 8-622,-12-32 319,11 32-327,0-1 0,1 1 0,-1 0 0,1-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1-1,0-1 1,1 1 0,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,0-1 0,0 1-1,1-2 2904,-1 15-2933,-2-1 0,1 1 0,-1 0 0,-1-1 0,-4 16 0,-3 30 217,8-49-203,0 5 15,0 1 1,1 0-1,0-1 0,1 1 1,5 22-1,-5-33-41,0 0-1,0 1 1,0-1-1,0-1 1,1 1-1,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,1-1 1,-1 0-1,0 1 1,1-1-1,0 0 1,-1-1-1,1 1 0,0 0 1,0-1-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,5-1 1,-4 0-10,0 0 0,1 0 0,-1-1 1,0 1-1,1-1 0,-1 0 0,0 0 1,0-1-1,1 1 0,-1-1 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1-1 1,1 1-1,-1-1 0,0 0 1,1 0-1,-2-1 0,1 1 0,0 0 1,-1-1-1,1 0 0,-1 1 0,0-1 1,0 0-1,-1 0 0,1-1 0,-1 1 1,2-7-1,1-8 15,-1 0 0,0 0 0,-1 0 0,-2-37 0,0 44 57,0 504 2555,0-491-2712,18-43-9720,-6 15 4882</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3087.4">540 709 6019,'0'0'9383,"-10"-7"-8644,-30-22-160,39 28-557,0 0 1,0 1 0,0-1 0,0 0 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1-1,0 0 1,-1-1 0,1 1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 1 0,1-1-1,0 0 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,1 0-1,-1 0 1,0-1 0,0 1 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,0 0 0,-1 2-1,-1 5 16,0 1-1,1-1 1,0 0-1,0 15 1,1-11-15,-1-4-15,0-1 0,1 1-1,0-1 1,0 0 0,1 1 0,0-1-1,0 0 1,1 1 0,0-1-1,0 0 1,1 0 0,0 0 0,0-1-1,1 1 1,-1-1 0,1 1 0,7 7-1,3-1 17,0 1-1,29 18 0,18 18 49,-59-49-57,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-3 2 0,2-1-123,-1-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0-1-1,-1 0 0,1 0 1,-1 0-1,1-1 1,-1 1-1,0-1 0,0 0 1,0 0-1,1 0 1,-7 0-1,9-1-148,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1-1 1,1 1-1,-1-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,-1-1 1,1 1-1,0-1 0,-1 0 0,1 1 1,-1-1-1,1 1 0,0-1 0,0 0 1,-1 1-1,1-2 0,-1 1-46,-9-20-6607</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2839.01">457 818 4258,'0'0'5613,"12"-13"-4324,-7 8-1147,7-9 484,1 1-1,1 0 0,0 1 1,1 0-1,26-15 1,71-44 3704,-72 43-4047,-31 24-21,-9 4-523,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 1-1,-1-1 1,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,2 14-5635</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2353.53">1245 564 9620,'0'0'7903,"-13"-2"-7516,5 1-331,5 0-31,-1 0 0,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,1 1 0,-1 0 0,0 1 0,0-1 0,1 0-1,-1 1 1,1 0 0,-1 0 0,1 0 0,0 0 0,-4 4-1,-7 9 88,1 0-1,1 1 0,0 1 1,1 0-1,1 0 0,0 1 1,2 0-1,0 1 0,1 0 1,1 0-1,0 1 0,2 0 1,0-1-1,2 2 0,0-1 0,1 0 1,2 33-1,0-49-135,-1 1 1,1 0-1,0 0 0,0-1 0,1 1 0,-1-1 1,1 1-1,0-1 0,0 1 0,1-1 1,-1 0-1,1 0 0,0 0 0,0-1 1,0 1-1,1-1 0,-1 1 0,7 4 1,-5-5-18,1 0 1,-1-1-1,1 1 0,0-1 1,0 0-1,0 0 1,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 0 1,0 0-1,8-1 1,-12 0 48,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 0,1 0 1,-1 0-1,-1 1 1,1-1-1,0 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 1,0 0-1,1 1 0,-1-1 1,0 0-1,0 0 1,0 1-1,-1-1 0,1 0 1,0 1-1,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,-3-2 0,-3-1 82,-1 0 0,-1 1 0,1 0 0,0 0 0,-1 1 0,1 0 0,-1 1 0,-13 0 1,-79 3 256,57 12-134,44-14-281,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,0 1 0,12 2-3678,14-3-1558</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2353.54">1245 564 9620,'0'0'7903,"-13"-2"-7516,5 1-331,5 0-31,-1 0 0,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,1 1 0,-1 0 0,0 1 0,0-1 0,1 0-1,-1 1 1,1 0 0,-1 0 0,1 0 0,0 0 0,-4 4-1,-7 9 88,1 0-1,1 1 0,0 1 1,1 0-1,1 0 0,0 1 1,2 0-1,0 1 0,1 0 1,1 0-1,0 1 0,2 0 1,0-1-1,2 2 0,0-1 0,1 0 1,2 33-1,0-49-135,-1 1 1,1 0-1,0 0 0,0-1 0,1 1 0,-1-1 1,1 1-1,0-1 0,0 1 0,1-1 1,-1 0-1,1 0 0,0 0 0,0-1 1,0 1-1,1-1 0,-1 1 0,7 4 1,-5-5-18,1 0 1,-1-1-1,1 1 0,0-1 1,0 0-1,0 0 1,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 0 1,0 0-1,8-1 1,-12 0 48,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 0,1 0 1,-1 0-1,-1 1 1,1-1-1,0 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 1,0 0-1,1 1 0,-1-1 1,0 0-1,0 0 1,0 1-1,-1-1 0,1 0 1,0 1-1,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,-3-2 0,-3-1 82,-1 0 0,-1 1 0,1 0 0,0 0 0,-1 1 0,1 0 0,-1 1 0,-13 0 1,-79 3 256,57 12-134,44-14-281,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,0 1 0,12 2-3678,14-3-1558</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1932.16">1427 620 9380,'0'0'7804,"-10"-1"-7292,-34-2-365,239 1-193,-193 2 62,1 0-1,-1 1 1,1-1-1,-1 1 1,0-1-1,0 1 1,1 0-1,-1 0 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,-1 1 1,1 0-1,0-1 1,-1 1-1,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,0 5-1,1 10 403,0 0 0,-2 1 0,-2 24 1,2-38-315,-2 12 87,-1-1 0,0 1 1,-1-1-1,-1 0 0,0 0 1,-13 21-1,-15 36-97,28-43-1104,6-28 813,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 0-1,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,17 1-5510</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1376.76">2091 577 5475,'0'0'11498,"-15"-9"-10644,-50-24-310,62 32-519,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 1,0 1-1,0 0 0,-1-1 0,1 1 1,0 0-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 1,-5 3-1,0 1 50,1 1 0,0 0 1,0 0-1,1 1 0,-8 10 1,11-14-34,-4 5-1,1 1 0,0 0 0,0 1 0,1-1 0,0 1 0,1 0 0,1 0 0,-1 1 0,2-1 0,-1 1 0,2-1 0,0 1 0,0 0 0,1-1 1,2 20-1,-2-30-46,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 1,0 0-1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,2 2 0,1-2-34,-1 1-1,0 0 1,1-1 0,0 0-1,-1 0 1,1 0-1,-1 0 1,1-1 0,5-1-1,-1 1-86,0-1 0,-1-1 1,1 0-1,-1 0 0,1 0 0,-1-1 0,0 0 1,7-6-1,-4 0 40,0 0 0,0-1-1,-1-1 1,-1 0 0,0 0 0,0 0 0,-1-1 0,-1 0 0,0-1 0,7-26 0,-14 55 344,1 0 1,0 0 0,0 0 0,4 19-1,2 36-263,-5-21 15,0-24 10,-1 0-1,-1-1 1,-6 39 0,5-55 27,0-1 0,0 1 0,-1-1 0,0 0 0,0 1 1,-1-2-1,0 1 0,0 0 0,0-1 0,-1 1 0,0-1 1,0-1-1,-1 1 0,1-1 0,-11 7 0,15-11-37,0 0 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 1-1,-1 0 1,1-1 0,0 0 0,-1 1-1,1-1 1,-1 0 0,1 1 0,-1-1-1,-1 0 1,2 0-39,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1-3-583,1 1 0,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0-1 1,1 1 0,0 0 0,0 0 0,1-5-1,17-24-7700</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-941.91">2344 633 8676,'0'0'10645,"-8"-13"-9703,-19-41-558,27 53-381,0-1 0,0 1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1-1,-1-1 1,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,0-1 0,39-12 34,-34 11-26,7-2-10,1 1 0,0 0 1,-1 1-1,1 0 0,17 2 0,-28 0-1,-1 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1-1,-1 0 1,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0 0 0,0 0 0,0-1 0,1 7 0,0 5 15,-1 1 0,0-1 0,-1 0 0,0 1 1,-1-1-1,-1 1 0,0-1 0,-1 0 1,-1 0-1,0 0 0,-1-1 0,0 1 0,-1-1 1,-1 0-1,0-1 0,-15 21 0,-5 4 23,18-26 49,1 0-1,1 0 0,-1 0 0,2 1 0,-8 17 0,14-29-84,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,21 4 10,27-14 39,-15-2-45,-1-2 0,45-23 0,-22 2-5008,-49 26-347,-6 1-3090</inkml:trace>
@@ -9462,7 +9460,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9494,7 +9492,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9525,7 +9523,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9550,12 +9548,12 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">10 208 3570,'0'0'9863,"0"-1"-9787,-1 1 1,0 0-1,1 0 0,-1-1 1,1 1-1,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1-1 1,-1 1-1,1-1 1,0 0-1,-1 1 0,1-1 1,0 1-1,0-1 1,-1 0-1,1 1 0,0-1 1,0 1-1,0-1 1,0-1-1,219-57 1709,-177 54-2794,-17 5-1944,-10 6-4096,-14 1 2533</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="200.74">152 279 2017,'0'0'9380,"-22"7"-8916,25-7-31,13 0 367,3-7-480,3-1-192,1-5-128,4 0-32,3-5-48,5 3-608,3-2-897,0-1-1008,-8 1-2818</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="200.73">152 279 2017,'0'0'9380,"-22"7"-8916,25-7-31,13 0 367,3-7-480,3-1-192,1-5-128,4 0-32,3-5-48,5 3-608,3-2-897,0-1-1008,-8 1-2818</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="583.57">155 40 6451,'0'0'6350,"3"-5"-6166,0 2-173,1-1 0,0 1 0,-1 0 1,1 0-1,1 1 0,-1-1 0,0 1 0,0 0 1,1 0-1,0 0 0,-1 1 0,1-1 1,0 1-1,-1 0 0,1 1 0,0-1 0,0 1 1,0 0-1,0 0 0,0 1 0,0-1 1,5 2-1,2-1 6,-1 1 1,1 0 0,-1 1-1,0 0 1,0 1 0,0 0-1,0 1 1,-1 0 0,13 9-1,-13-6 26,-1 0-1,0 1 0,0 0 1,-1 0-1,0 1 0,-1 0 0,0 1 1,-1 0-1,10 22 0,-13-29 17,-1 1 0,0 0 0,-1 0 0,1 1-1,-1-1 1,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-2 0 0,1 0 0,0 0 0,-1 0-1,0 0 1,0 0 0,-1 0 0,0 0 0,1-1 0,-8 9 0,-2-2 132,-1 0 1,0-1 0,-17 11-1,18-14-180,1 1 0,0 0 0,0 0 0,1 1 0,-13 15 0,18-14-812,5-3-4558</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9589,39 +9587,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:07:42.919"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3662 117 3169,'0'0'6953,"-6"-20"1787,21 294-8316,-14-208 193,1-11-1921,-2-19-7442</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2350.63">3643 133 1185,'0'0'9004,"-11"-12"-5453,14 10-3413,1 0 0,-1 0 1,1 0-1,-1 0 1,1 1-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 1-1,5-1 1,51 0 660,-41 2-706,356-33 308,-214 13-429,50-2-675,307 9 0,-406 23 380,48 1-191,-158-4 534,-1 0 1,-1-1 0,1 1 0,-1 0 0,-1 9 0,1-10-2,-8 96 98,1-35-69,1-16-38,-15 59 0,4-24-9,14-60 241,1 0 0,1 29 0,1-42 748,-36-19-625,-34-11 128,-2 4 0,-84-4-1,-146 11 658,247 5-1246,-173 14 233,1 0-42,99-10-29,-86-3 52,165-9 64,46 8-171,1-1-1,-1 1 1,1-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,-2-3 1,2-2-1057,0-1 0,0 1 0,0 0 1,1-1-1,1 1 0,-1-1 0,1 0 1,1-7-1,-1 1-657</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3669.31">43 113 1505,'0'0'7510,"-3"-5"-6515,1 2-615,-10-16-24,8 8 3897,4 21-4800,2 29 595,13 69 1,-3-24 185,-3-14-103,-2-25 33,1 72 0,-2-128-8918,-6-7 2266</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4596.96">1 162 3201,'0'0'6361,"5"-2"-6244,39-16 585,1 2 0,0 2 1,1 2-1,92-11 0,433-25-281,-265 28-1325,-197 14 688,-108 5 229,1 1 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 1,1 1-1,-1 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1 0 1,0-1-1,0 1 0,2 3 1,0 0-4,-1 0 1,0 0 0,0 1 0,-1-1 0,1 1-1,-1-1 1,2 11 0,6 48 135,3 116 0,-10-116-126,-1 145 428,-2-206-379,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-3 0 0,-58 8 276,63-8-346,-395 20-79,-163-7-283,403-14-3100,167 0-1177,9-5-1138</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6042.59">1492 281 1393,'0'0'8542,"7"0"-7885,277-13 2923,156 13-3282,-195 1-241,19 2-55,221-4-114,-242-8 592,-236 10-472,1-1-1,0 1 1,-1 0-1,15 5 1,-21-5-32,-2-3 14,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,-1 1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 1 0,-5-3 1,-52-33-249,31 21 196,-13-7 270,40 22-80,28 12-768,96 73 189,-122-84 444,-1 1 0,1-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,-33 21 525,33-21-510,-34 17 107,-42 21 777,27-8-5663,38-23-464</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9649,7 +9615,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9674,17 +9640,17 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">107 11 5170,'0'0'9682,"-7"-10"-7852,7 589 884,0-578-2512,-24-37 81,-2-6-275,-20-27 16,43 66-27,3 3-79,0 12-310,2-5 363,0 0 1,0 0 0,0 0 0,1-1 0,0 1 0,0-1-1,0 1 1,6 5 0,-8-9-11,1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,5 0 0,-7-1 54,1-1 0,-1 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,-1-1 0,1 1-1,-1 0 1,2-3 0,14-38 110,-12 29-90,16-53 176,-16 41-9269,-4 30 3082</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="344.49">3 720 9220,'0'0'7705,"0"0"-7699,0 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 1 0,3 16 145,-1 1 1,0-1-1,-1 1 0,-1 0 1,0 0-1,-3 25 1,2 46-1922,0-88 1506,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,2 2 0,14 4-3564</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="741.36">191 798 1393,'0'0'11074,"0"-6"-9668,0-6-1009,0 3 219,-4 26 86,2-7-321,0-3-283,0 1 1,0-1 0,1 1 0,0-1 0,1 1 0,-1 0 0,2-1-1,-1 1 1,3 13 0,2-17 590,-1-14-402,-2-14-126,-2 22-150,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1 0 0,-1-1 0,-3-1 0,0 1-65,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 1 0,1 0-1,-1 0 1,0 1 0,-6 0 0,12 0-109,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,39 1-5327,-14-1 2067</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="344.48">3 720 9220,'0'0'7705,"0"0"-7699,0 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1 1 0,3 16 145,-1 1 1,0-1-1,-1 1 0,-1 0 1,0 0-1,-3 25 1,2 46-1922,0-88 1506,0 1 1,0-1-1,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,2 2 0,14 4-3564</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="741.35">191 798 1393,'0'0'11074,"0"-6"-9668,0-6-1009,0 3 219,-4 26 86,2-7-321,0-3-283,0 1 1,0-1 0,1 1 0,0-1 0,1 1 0,-1 0 0,2-1-1,-1 1 1,3 13 0,2-17 590,-1-14-402,-2-14-126,-2 22-150,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1 0 0,-1-1 0,-3-1 0,0 1-65,-1 0 0,1 0-1,-1 1 1,1-1 0,-1 1 0,1 0-1,-1 0 1,0 1 0,-6 0 0,12 0-109,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,39 1-5327,-14-1 2067</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="867.31">178 811 1601</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1055.42">178 811 1601,'73'-27'2668,"-63"29"7771,-5 11-7126,-5 21-4360,-1-28 2140,1-5-1085,0 0-1,0-1 1,0 1 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 1-1,1 0 1,-1 0 0,0-1 0,0 1-1,0 0 1,0 0 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1-1-1,1 1 1,-1-1 0,0 1 0,1 0-1,0-1 1,-1 1 0,1-1-1,-1 1 1,1-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,-1 0-1,1 1 1,0-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0-1,-1 0 1,1-1 0,0 1 0,0 0-1,0 0 1,-1 0 0,2-1-1,0 0 24,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1-1-1,-1 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0-4 1,-1 4 21,1 0-1,-1 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0-1,1 0 1,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,-4-3-1,3 4-75,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1-1,1 0 1,-1-1 0,0 1 0,0 1 0,0-1 0,1 0 0,-1 1 0,-5 1 0,6-1-124,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,0-1 0,1 1 0,-2 2 0,1-3-76,1 0 0,0-1-1,-1 1 1,1 0 0,0-1 0,0 1 0,0 0-1,0-1 1,-1 1 0,1 0 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1 0 0,0-1-1,1 1 1,-1 0 0,0-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 1 0,0-1 0,-1 0-1,1 1 1,0-1 0,-1 0 0,1 1 0,0-1-1,-1 0 1,1 0 0,0 0 0,0 0 0,-1 0-1,2 0 1,20 1-4487</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1270.88">533 687 5715,'0'0'11109,"-64"89"-10677,48-58-112,1-1-208,0 1-16,3-3-96,1-4-128,3-2-768,1-5-769,3-6-1072,-4-5-1921</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1270.87">533 687 5715,'0'0'11109,"-64"89"-10677,48-58-112,1-1-208,0 1-16,3-3-96,1-4-128,3-2-768,1-5-769,3-6-1072,-4-5-1921</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1440.35">311 716 6147,'0'0'8068,"15"28"-9797,8-2-720,0 0-3314</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1611.51">554 970 1265,'0'0'15831,"-11"-15"-18921,0 15-2832</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9717,7 +9683,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -9752,7 +9718,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4916.6">936 1245 7459,'0'0'8970,"-19"29"-7441,17-25-1505,-12 42 73,14-44-114,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,2 4-1,-3-6 21,1 1-1,0 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,0-1-1,0 0 1,-1 1-1,1-1 1,0 0-1,-1 0 1,1 1-1,-1-1 0,2-1 1,-1 0 28,1-1 0,0 0-1,0 0 1,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,-1 0 0,1-5-1,0-6-25,-4-38 373,3 51-415,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1-1,1 1 1,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,-1 0 0,2 0-187,1 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,-1 0 0,1 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0 0-255,0 7-5206</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5183.81">1244 1147 6979,'0'0'9629,"-9"11"-9112,-37 49-134,2 3 1,-39 77-1,79-130-1417,-1 2-2321,-1-8-3085</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5346.92">1009 1171 8788,'0'0'9140,"-12"-22"-10805,31 31-63,8 11-1170,-4 3-1600</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5516.93">1263 1404 8036,'0'0'13094,"4"0"-14055</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5516.92">1263 1404 8036,'0'0'13094,"4"0"-14055</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9772,7 +9738,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:07:56.762"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T17:57:57.638"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -9780,12 +9746,9 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">87 277 8228,'0'0'8508,"5"-17"-3216,-5 10-5710,0 6 399,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,0 0 0,-1 0-26,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 1 1,0-1-1,-1 0 1,1 1 0,1 0-1,-1-1 1,-2 5 0,2 0-93,1-1 1,-1 1-1,1-1 1,1 1-1,-1 0 1,2 7-1,-1-14 134,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1-1,0 0 1,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,16-10 213,-12 6-189,-1 0-1,0 0 0,-1 0 0,1-1 1,-1 0-1,0 1 0,-1-1 0,1 0 1,-1 0-1,0 0 0,-1 0 0,1-1 1,0-6-1,0-12-60,-1 0 0,-2-27-1,0 12 1,0 13-9,-1 45-296,-1 47 248,3-41 113,2 57 15,-1-77-33,-1 0 1,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,0 1 0,1-1 0,-1 0-1,1 0 1,0 0 0,4 4 0,-6-6 2,0 0 0,0 0 1,1 0-1,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,1 1 0,0-1 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 0,-1-1 0,1 1 1,1-2-1,0 1-2,-1-1 0,0-1 1,0 1-1,0 0 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 1 1,-1-1-1,0 0 0,0 0 1,1-3-1,2-8-70,0 0-1,-2 0 1,0 0 0,1-25 0,-3 38 44,3 42-509,-1-34 486,5 14-510,0-15-2471,3-9-3570,-7-3 902</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="199.22">214 130 4898,'0'0'1745</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="478.12">214 130 7091,'58'53'1761,"-54"-49"-1441,0 0 0,0-1 0,-1 1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,1 8 0,5 17 144,-8-33-332,-1 1 1,1-1 0,0 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,1-1 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,1 1 1,-1 0 0,0 0-1,1 0 1,0 0 0,3-4-1,-4 5-496,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,3-1 0,4 1-3385</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="883.61">401 250 1873,'0'0'9591,"29"5"-7798,-24-6-1654,0 1 1,-1-1 0,1 0-1,0 0 1,-1 0 0,1-1-1,-1 0 1,5-2-1,-8 4-118,0-1-1,1 1 0,-1-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0-1 0,-1 1 0,1 0 1,-1 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0 0 1,-1 0-1,0-2 0,1 2-7,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,0 0 7,-1 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,-1-1 0,1 1 1,-1 0-1,1 0 1,-3 3-1,4-4-20,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0 2 1,0-3-119,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 1,1-1-1,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,2 1 1,2 0-743,1-1 0,-1 0 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1-1 0,-1 0 0,1-1 0,9-3 0,8-5-1968</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1272.17">593 203 96,'0'0'13169,"-20"-3"-10253,18 4-2897,1 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,1 1-1,-1-1 1,0 1 0,1-1 0,0 1 0,-1-1-1,1 1 1,0 0 0,0-1 0,-1 1 0,1-1 0,0 1-1,1 0 1,-1-1 0,0 1 0,0-1 0,1 1-1,-1-1 1,1 1 0,0 1 0,1-1-32,-1 0 0,1 0-1,-1-1 1,1 1 0,0-1 0,-1 0 0,1 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1-1,1 0 1,-1-1 0,0 0 0,0 1 0,0-1 0,5 0 0,-2-1-25,1 1 0,0-1 1,0-1-1,-1 1 0,1-1 1,-1 0-1,0 0 0,1-1 1,-1 1-1,0-1 0,0-1 1,0 1-1,-1 0 0,1-1 1,-1 0-1,0 0 0,0-1 1,6-8-1,-4 6-44,-1-1-1,-1 1 1,0-1-1,0 1 1,0-1-1,-1 0 1,0-1-1,-1 1 1,0 0-1,0-1 1,0 0 0,-1-10-1,0 3 87,-1-28-105,0 42 135,0 0-1,0 1 1,0-1-1,0 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 1,-1 1 0,1 0-1,0-1 1,0 1-1,-2-1 1,2 3 37,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,1 0 0,-1 0 0,0 5 0,-2 10 402,1 0 0,0 0 0,1 0 0,3 30-1,-2-43-561,1 1-1,0-1 0,0 0 1,0 1-1,0-1 0,1 0 0,0 0 1,0 0-1,0 0 0,4 6 1,-4-9-248,-1 1 0,1 0 1,-1-1-1,1 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,3-1 1,9-2-8466</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1486.96">663 132 9620,'0'0'7652,"47"-12"-7924,-6-3 272,6 0-689,0 0-1007,-8 4-946,-13 1-2464</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">19 59 8772,'0'0'9855,"0"-1"-9770,1 1-1,-1-1 1,1 1-1,0-1 0,-1 1 1,1-1-1,0 1 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0-1 0,0 1 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,1 1 0,0 12 13,-1 0-1,0 0 1,-1 0-1,-1 1 1,0-1-1,0 0 1,-1 0-1,-1 0 1,0 0-1,-1-1 1,-7 16-1,1 2-1259,6-11-4552</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="457.1">420 16 5699,'0'0'10231,"-15"-4"-9810,-47-7-28,59 11-370,0 0 0,0 1 0,1-1 0,-1 1 1,0 0-1,0-1 0,0 1 0,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 1 0,1 0 0,0 0 0,0-1 1,0 2-1,0-1 0,0 0 0,0 0 0,0 1 0,1-1 1,-3 5-1,-2 1 8,6-7-38,-1-1-1,0 1 1,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,0-1-38,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,2 0 0,5 0-62,-1 0 0,1-1 0,0 0 0,-1 0 0,13-4 0,-15 3 113,-4 1-8,1 0-1,-1 0 1,1 0-1,0 0 1,-1 1-1,1-1 0,0 1 1,-1 0-1,6-1 1,-7 2 9,-1-1 0,1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,-1-1 0,1 1 1,0 0-1,-1 0 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 2 0,0 7 126,-1 0 1,1-1 0,-1 1-1,-1 0 1,0-1-1,-1 1 1,1-1-1,-2 0 1,1 0-1,-1 0 1,-1 0-1,1-1 1,-2 0-1,1 0 1,-1 0-1,0 0 1,-1-1-1,1 0 1,-1-1-1,-1 1 1,1-1-1,-16 8 1,15-8 20,6-4-122,-1 0-1,0 0 0,1 0 1,-1-1-1,0 1 0,0-1 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 0 0,-1 1 1,-4-1-1,8-1-397,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 0,0 0 0,1 0 0,0-2 0,14-14-7115</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1199.66">571 72 6979,'0'0'8180,"-3"12"-7252,-2 15 67,1-1-1,-2 44 0,7-70-970,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,2-1 0,31-5 300,-32 4-311,1 1 0,-1-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 1,0 1-1,1-1 0,-1 1 0,0-1 0,1-5 0,-2 7-11,0-1-1,1 0 1,-1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 1-1,-1-1 1,1 0 0,0 0-1,-1 1 1,0-1-1,1 0 1,-1 1 0,0-1-1,0 0 1,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,-1 0 1,1 0 0,-1-1-1,-1 0 1,-5-3-3,-1 1 1,0 0 0,0 0-1,0 1 1,-12-3-1,16 4-12,7 0-14,0 1 1,0-1-1,0 1 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,1 0 0,2 0 0,-2 0 7,23-6-293,-1 2 0,1 0 0,45-2 0,-70 7 313,-1 1 1,1-1-1,0 1 0,-1-1 1,1 1-1,0 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 2-1,-1 32 448,1-27-254,-5 79 753,6-86-943,0 0 0,1 0 1,-1-1-1,0 1 0,0 0 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,2-1 1,29-1 78,-27 2-25,-1-1 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 0-1,0 1 1,0-1-1,-1-1 1,1 1-1,0 0 1,-1-1-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0-1 1,-1 1-1,1 0 1,-1-1-1,-1-5 1,1 8-28,0 1 1,-1-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,0-1-1,-1 1 1,0-1 0,1 1 0,-1-1 0,1 1-1,-1 0 1,0 0 0,-2 0 0,-57-4-689,54 5 387,-3-1-402,1 1 1,0 0-1,0 1 0,0 0 0,-12 5 0,7-3-974,-21 7-4482</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9805,7 +9768,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:08:07.703"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T17:57:55.017"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -9813,15 +9776,14 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 169 6915,'0'0'8212,"12"20"-5803,-9-4-2169,-2-1-1,0 1 0,0 21 1,2 38-451,-2-74 34,-1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,6 1-5222</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="211.58">60 4 7732,'0'0'3313,"9"-3"-6594,0 6 831,-3 8-1551</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="707.85">134 228 7187,'0'0'8111,"5"28"-7004,0-16-767,-1 0 1,-1 1 0,0-1-1,0 1 1,0 17-1,-3-30-305,2-2-42,0-1 1,0 1-1,-1 0 0,1-1 0,-1 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,0 1 0,0-6 1,1 2 24,0-3-22,1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,1 0 0,9-11 0,-14 19 1,1 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 1-1,0-1 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1-1-1,0 0 0,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 0,-1-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,0-1 0,0 2 1,11 24 364,-10-23-303,5 13-422,14 30 1912,-6-28-3553,5-10-4696,-10-8 1839</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1428.36">377 281 5410,'0'0'10213,"-8"-4"-9562,3 1-627,-28-11 652,32 14-652,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1-1,-1 0 1,0 2 0,-1 1-18,0 1-1,1-1 0,0 1 0,0-1 0,0 1 0,0-1 1,1 1-1,-1 0 0,1-1 0,0 1 0,1 0 0,-1-1 0,2 8 1,-2-11-21,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,0 1 0,0-1 1,0-1-1,-1 1 0,1 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,2 0 1,-2-1-9,1 1-1,0-1 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1-1,-1-1 1,1 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,1-2-1,3-1-32,-1-1-1,1 0 1,-1 0-1,0 0 1,0-1-1,0 0 1,-1 0-1,0 0 0,0-1 1,0 1-1,-1-1 1,0 0-1,0 0 1,-1-1-1,4-13 1,-2-3 160,0 1 1,-2-1 0,0-43 0,-3 79 619,-2 74-69,3-81-652,0-1 0,0 1 0,1 0 1,-1-1-1,1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,0 0 0,1-1 0,5 6 0,-7-8-21,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,1-1-1,0-1 13,-1 0 0,1 1 0,0-1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,2-2 0,0-7 58,1-1 0,-2 0 0,1-26 0,-2 39 120,0 26-95,0-15-636,0 40 1917,5-32-3018,-5-18 1477,1-1 0,-1 1 0,0-1 0,0 0 1,1 1-1,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,0-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1591.62">551 73 8196,'0'0'3345</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1950.08">584 214 5843,'0'0'6280,"6"12"-5656,2 2-516,1 3 452,1 0 0,-2 1 0,13 38 0,-22-61-262,0 0 0,0-1-1,1 1 1,0 0 0,0 0 0,0 0 0,1 0-1,0-1 1,0 1 0,0 0 0,0 0 0,1 0-1,-1 1 1,4-7 0,-2 5-579,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,9-4 1,7-2-6812,-12 8 1548</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2325.12">748 207 2049,'0'0'9708,"26"-6"-6810,-23 4-2872,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 1,1 0-1,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-4 0,-2 7-11,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 0,-1-1 1,1 1-1,0-1 1,-1 1-1,-16 10 179,14-8-93,-1 2 0,1-1 1,0 0-1,0 1 1,0-1-1,1 1 1,-1 0-1,1 0 1,0 0-1,1 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 1 1,1-1-1,-1 1 1,1-1-1,1 8 1,0-12-225,0 0 0,0 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 1,1-1-1,-1 1 1,0-1-1,1 0 0,-1 1 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,-1-1 1,1 1-1,-1 0 1,2-1-1,39-8-7641,-21-2 1597</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2793.89">961 169 7443,'0'0'8167,"-8"8"-6967,4-4-1158,0-1 71,1 0 1,-1 0-1,1 1 0,0 0 1,0-1-1,0 1 0,0 0 1,1 1-1,0-1 0,-1 0 0,1 1 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 0,1 0 1,-1 0-1,0 0 0,1 0 1,0 5-1,1-8-119,0-1-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 0 0,1 1 0,-1-1 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,3-1-1,38-9-33,-28 4-65,0-2 0,-1 0 1,0 0-1,-1-1 0,1-1 1,-2 0-1,1 0 1,11-16-1,-18 20 26,0-1-1,0 0 1,-1 0 0,1 0-1,-2-1 1,1 1 0,-1-1 0,0 0-1,0 0 1,-1 0 0,0-1-1,-1 1 1,1 0 0,-1-1 0,-1 1-1,0-1 1,0-10 0,-1 18 110,1 0 1,0-1-1,0 1 0,-1 0 1,1 0-1,0-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,-1-1 1,1 1-12,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 2 0,-6 24 136,1 2 1,1-1-1,2 0 0,0 1 0,2 0 1,2 27-1,-2-52-198,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 1,0 0-1,3 2 0,11 4-2911,2-7-3280,-6-4-1344</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3011.08">1066 165 2177,'0'0'14983,"5"0"-15367,22-7 80,2-4 272,-2 2-977,-1-2-512,-2 4-512,-4 0-256,-5 3-1921,-3 1-896</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">135 61 9268,'0'0'9100,"-5"-5"-8590,4 3-486,-1 0-1,0 1 1,1-1 0,-1 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,0 1-1,-1-1 1,1 1 0,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 1 0,1-1 0,0 1-1,0-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,0 0 0,0 1-1,0-1 1,-3 3 0,0 0-18,1 0 0,0 0 1,0 0-1,0 0 0,1 1 1,-1-1-1,1 1 0,0 0 1,1 0-1,-1 0 0,1 0 1,0 1-1,0-1 0,0 1 1,1-1-1,0 1 0,0-1 1,1 1-1,-1 0 0,1 0 1,0-1-1,1 1 0,0 5 1,0-9-19,0-1 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,1-1 1,-1 1 0,0 0-1,0-1 1,1 1 0,-1-1-1,1 0 1,-1 1 0,0-1-1,1 0 1,-1 0 0,1 0-1,1 0 1,45 0-699,-39-1 547,-5 1 147,0-1 0,0 0 0,0 0 0,1 0 1,-1 0-1,0-1 0,0 0 0,-1 1 0,1-1 1,0-1-1,-1 1 0,1-1 0,-1 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,-1-1 0,1 1 1,-1-1-1,0 1 0,1-1 0,-2 0 0,1 0 1,0 0-1,-1 0 0,0 0 0,0 0 0,0 0 1,0-1-1,0 1 0,-1 0 0,0 0 0,0-1 1,0 1-1,-1 0 0,-1-7 0,1 10 35,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1-1,0 0 1,-1-1 0,1 1 0,0 0 0,0 0 0,-3-1 0,-12 2-1889,9 4-6501,7 2 3937</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="181">135 61 4866</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="309.54">135 61 4866,'112'-44'1996,"-83"31"1917,-22 9-745,-7 9-1257,-1 8-2283,2-1 634,-1 1 0,0 0 0,-1 0 0,-1-1 0,0 1 0,-1-1 1,0 1-1,-1-1 0,0 0 0,-1 0 0,-8 14 0,5-13-206,5-10-54,1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,1 0 1,0 1-1,0-1 0,0 1 0,-1 3 0,0-2-295</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1009.78">344 12 5811,'0'0'7094,"-4"-1"-6521,2 1-499,0-1 0,0 0-1,-1 1 1,1-1 0,0 1 0,0 0-1,0-1 1,-1 1 0,1 0 0,0 1-1,0-1 1,0 0 0,-1 1 0,1-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,1 0 0,-1 1-1,0-1 1,1 1 0,-1 0 0,1-1-1,0 1 1,-1 0 0,1 0 0,0 0-1,0 0 1,-1 2 0,-7 13 332,0 1 0,2 0 1,0 1-1,0-1 0,2 1 0,-4 24 1,8-37-331,0 0-23,0 1 0,0-1 0,0 1 0,1 0 0,1 11 0,0-16-49,-1-1 0,0 1 1,1-1-1,-1 1 1,1-1-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,1-1-1,-1 1 0,0 0 1,1-1-1,-1 1 0,0-1 1,1 1-1,-1-1 0,1 1 1,-1-1-1,1 0 1,-1 0-1,3 0 0,5 1 13,0-1 1,0 0-1,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0-1 1,-1 0-1,14-8 0,-17 8-17,-1 1 0,0-1 0,0 0 1,0-1-1,-1 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1-1-1,0 1 0,0-1 0,0 1 0,0-1 1,-1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,-1-9 0,0 1 1,1 5 12,-1 1 0,0-1 1,-1 1-1,0 0 0,0-1 1,0 1-1,-3-8 0,3 13-20,-1 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1-1,-1-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 1 0,0-1-1,-1 1 1,1 0 0,0 0-1,-1 0 1,1 0 0,-3 0-1,4 0-90,-1 0 0,1 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,-1 0 0,1-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 2 0,2-2-276,0 0 1,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,0 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 0-1,1-1 1,0 2-1,10 8-5927</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1324.6">701 88 7075,'0'0'11782,"-9"-6"-11203,15 3-553,0 1 1,0 0 0,0 1-1,0 0 1,0 0 0,8-1-1,74-8 14,-88 10-280</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1767.64">1097 40 7716,'0'0'9302,"-17"21"-8274,15-15-946,-1 1 1,1-1 0,0 1-1,0 0 1,1 0 0,0-1 0,0 1-1,0 0 1,1 0 0,0 0-1,2 9 1,-1-15-80,-1 1-1,1-1 0,-1 0 1,1 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1 0-1,1 0 0,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 0-1,0 0 0,0 0 1,1 1-1,0-2 1,40 2-80,-32-2-14,-6 2 88,-1-2 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 0,-1-1 0,-1-3 0,2 5 10,-1 0 1,1 1 0,-1-1-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 1-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 0 0,0 1-1,-2-1 1,-52-3-912,53 4 743,3 0 21,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,0 0 0,-1 1 0,1-1 1,0 0-1,0 1 0,-1-1 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 1,0 0-1,0 1 0,1-1 0,-1 0 0,0 1 1,0 0-1,0 3-2417,0 1-3849</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2050.22">1468 12 5410,'0'0'12347,"-3"7"-12160,-27 66 802,16-41-948,1 1-1,-11 43 0,23-68-1948,2-3-2219</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2246.1">1539 147 8052,'0'0'7875,"93"-20"-7763,-70 17-64,-1 1-48,-4-1-288,0 3-1681,0-5-1184,-5 2-3794</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -9841,7 +9803,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T16:11:59.977"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-09T17:58:01.542"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -9849,7 +9811,16 @@
       <inkml:brushProperty name="color" value="#004F8B"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">164 8 8084,'0'0'8102,"-5"-3"-7552,5 3-520,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 1,-1 0-1,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 1,1 0-1,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 1,0 1-1,-1 28 1046,2-15-1223,2 125 831,-5 154-413,0-249-147,-15 132 558,18-175-665,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-2 1 0,1-2-4,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,1 1 0,-1-1 1,0 1-1,1-1 0,-2-2 1,-42-60-31,44 61 19,-2-1 4,0-1 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-2-11 0,4 16 2,12 12-512,9 8 492,-2-2 18,0 0 1,0-1-1,43 27 1,-60-44-4,-1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,-1 0-1,1 1 1,0-1-1,0 0 1,-1 0 0,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1-2-1,17-40 161,-16 38-150,15-51 443,-4 8-2206,0 18-7297</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">112 217 6547,'0'0'9869,"0"0"-9775,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0-1-1,-1 1 1,1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0 0,-1 0-1,1-1 1,0 1-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,-1 0 1,0 0 0,-4 2-17,0 0 0,0 0 0,0 0 1,0 1-1,1 0 0,-1 0 0,1 0 1,0 0-1,-1 1 0,2 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 1 1,1-1-1,-1 1 0,-2 7 0,0-2-29,1 0 0,0 1-1,1 0 1,0 0-1,0 0 1,1 0-1,0 23 1,2-33-49,0 0 0,1 0 0,-1 0 0,1 1-1,0-1 1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1-1,0 1 1,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 0 0,0 0 0,3-1 0,2 1-35,0-1 0,0 1 0,0-1 0,0-1 1,0 1-1,10-5 0,-13 5 23,1-1 1,-1-1-1,1 1 0,-1 0 1,0-1-1,0 0 0,0 1 1,0-1-1,-1-1 0,1 1 1,-1 0-1,0 0 0,0-1 1,0 1-1,0-1 0,0 0 1,-1 0-1,0 1 0,0-1 1,0 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,0-1-1,-1 1 0,0 0 1,1 1-1,-3-6 0,2 7-17,0 0-1,-1-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,1 1 1,-1 0-1,0 0 0,0 0 1,-4 1-1,7 0-228,0-1-1,-1 1 1,1 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,1-1 1,-1 1-1,0 0 1,1 1-1,5 8-6161,10-4-836</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="159.6">125 204 7940</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="282.58">125 204 7940,'115'32'1768,"-97"-25"4849,-11 1-4320,-7 9-2921,-2-11 1539,0 10-700,-1-1-1,-1 1 1,0-1 0,-1 1 0,-1-1 0,0-1 0,-1 1-1,-1-1 1,-14 19 0,10-13-264,10-12-1303,14-6-7890,8-6 1321</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="565.84">522 1 8212,'0'0'7032,"-1"20"-5820,-1 7-865,2-5-10,-2 0 1,0 0-1,-10 39 0,-86 314 2366,95-362-2964,-4 17 213,5-9-4592,15-33-10658</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1152.49">740 235 5234,'0'0'9655,"-5"13"-4617,-15 48-4372,14 7-500,6-67-166,1 0 1,-1 0-1,1-1 1,-1 1-1,1 0 1,0 0 0,-1 0-1,1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,2-1 1,36-2-103,-35 1 83,0 0 0,0 1 0,0-1 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1-1 1,-1 1 0,0-1 0,0 0-1,0 1 1,2-7 0,-1-1 34,0 0-1,-1 0 1,0 0 0,-1 0-1,0-22 1,-2 31 4,1 1 0,-1-1 1,1 1-1,-1 0 0,0-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,0 0-1,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,-2 2 0,2-3-107,0 1-1,0 1 1,0-1-1,0 0 0,1 0 1,-1 1-1,0-1 0,0 1 1,0-1-1,0 1 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 1 1,1-1-1,0 0 0,0 1 1,-1-1-1,1 1 0,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 0,0-1 1,1 1-1,-2 3 0,2 15-7261,0-14 1270</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1414.46">927 197 2225,'0'0'13921,"11"-12"-12744,-9 75 914,-3-46-1899,-2-1 0,0 0 0,-1 0 1,-1-1-1,0 1 0,-1-1 0,-1 0 0,0 0 0,-18 24 0,35-45-11888,6-8 3770</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1864.73">1355 52 6451,'0'0'12694,"0"-8"-11579,-1 70-607,-3 0-1,-3-1 1,-29 118-1,21-114-217,10-41-165,0 0 0,-2 0 0,0 0 1,-2-1-1,-1 0 0,-12 22 0,14-36-245,5-12-1958,4-19-4993,0 18 5842,3-16-7231</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2201.73">1609 209 7091,'0'0'10771,"4"16"-9277,-4-5-1195,0-1 0,-1 1 0,0-1 1,-1 0-1,0 1 0,-1-1 0,0 0 1,-7 17-1,-46 84 600,37-76-783,12-18-185</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2726.38">1849 194 48,'0'0'15506,"-7"-7"-14298,3 2-1042,3 4-130,0-1 0,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 1 0,0-1 1,1 1-1,-1 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 1 1,1 0-1,-1 0 0,1-1 0,-1 1 1,-2 2-1,-5 5 44,0 1 0,1 0 0,0 0 0,0 0 0,0 1 0,2 0 0,-1 1 0,1 0 0,1 0 0,0 0 0,0 0 1,1 1-1,1 0 0,0-1 0,0 1 0,1 1 0,0 15 0,5-28-161,0 0 1,0 0-1,0 0 0,-1-1 1,1 1-1,0-1 1,0 0-1,0 0 1,3-1-1,3-5-37,1 0-1,-1-1 1,13-13-1,-17 15 106,1 0 0,-1 0 0,2 0 0,-1 1 1,1 0-1,-1 1 0,1-1 0,0 1 0,14-5 0,-20 9 7,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 1,5 33-37,-13 34 68,5-59 4,0 0-1,-1 0 1,0 0-1,-1-1 1,0 1 0,0-1-1,-1 0 1,0-1-1,0 1 1,-10 8 0,12-13 54,1 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,1 1 0,-1-2 0,0 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-8-1 0,12 1-149,0 1-1,0-1 1,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 1-1,0-2 1,1 1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,0 1 0,-1 0-1,1 0 1,0-1-1,0 1 1,0 0-1,0-2 1,4-31-5809,11 15 594</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3348.55">2019 240 1281,'0'0'16735,"-11"18"-15878,-30 55-350,38-69-460,1 0 0,0 0 0,0 0 1,1 0-1,-1 1 0,1-1 1,0 1-1,0-1 0,1 1 1,-1-1-1,1 1 0,0-1 1,0 6-1,1 3 83,0-12-127,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1-1 0,1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,1-1 0,2 0 7,0 1 1,-1-1-1,1 0 0,-1 1 0,1-2 1,-1 1-1,1 0 0,-1-1 0,0 1 1,5-4-1,-6 3 14,0-1 0,1 0 0,-1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,-2-3 0,-7-6 270,13 4-349,28 0-365,-24 6 393,23-3-398,-1 2 0,53 0 0,-79 3 440,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0-1 0,1 1-1,-2 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 0 0,1 0-1,-1 1 1,0-1-1,0 0 1,0 1-1,0 1 1,-1 50 954,0-38-691,1-1-127,0-8-114,0-1 0,0 0 0,0 0 0,1 1-1,-1-1 1,1 0 0,3 9 0,-3-13-36,0 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,1 0 0,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0-1 1,0 1-1,0-1 1,-1 1-1,1-1 1,0 0-1,0 0 0,0 0 1,4 0-1,1 1 1,0-1 0,0 0-1,0-1 1,1 1-1,-1-1 1,0-1-1,0 1 1,0-1-1,0-1 1,0 1 0,-1-1-1,9-5 1,-11 5 0,-1 1 1,1-1-1,-1 0 1,0 0 0,0-1-1,-1 1 1,1-1-1,-1 1 1,1-1 0,-1 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0-1-1,-1 1 1,1 0 0,-1-1-1,0-6 1,0 7 44,0 1 1,0-1-1,0 0 0,0 1 1,-1-1-1,0 1 1,0-1-1,0 1 0,0 0 1,0-1-1,-1 1 1,1 0-1,-1 0 1,0-1-1,0 1 0,0 1 1,0-1-1,-1 0 1,-2-2-1,-1 1 56,1 0 0,-1 1 0,0 0-1,-1 0 1,1 1 0,-1-1 0,1 1 0,-1 1 0,-9-2 0,-5-1-114,1 2 1,-1 1-1,1 0 0,-37 4 1,34 0-1334,0 1 0,-23 8 0,-7 3-5099</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -10971,18 +10942,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D21">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="top10" dxfId="7" priority="5" bottom="1" rank="3"/>
-    <cfRule type="top10" dxfId="6" priority="6" rank="5"/>
+    <cfRule type="top10" dxfId="2" priority="5" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="1" priority="6" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G21">
     <cfRule type="dataBar" priority="4">
@@ -11011,7 +10982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J21">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K21">
     <cfRule type="iconSet" priority="1">
@@ -11051,669 +11022,669 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0528A-8627-4754-B71D-4C2F5A4690E0}">
   <dimension ref="B2:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A113" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:2" ht="17.649999999999999">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="63" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="63" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="17.649999999999999">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="63" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="63" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="17.649999999999999">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="62" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="63" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="63" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="63" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="63" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="17.649999999999999">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="62" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="63" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="63" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="63" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="63" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="63" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="17.649999999999999">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="63" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="63" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="63" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="63" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="63" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="17.649999999999999">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="63" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="63" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="63" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="63" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="63" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="17.649999999999999">
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="62" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="63" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="63" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="63" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="63" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="63" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="17.649999999999999">
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="62" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="63" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="63" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="63" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="63" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="63" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="17.649999999999999">
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="62" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="63" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="63" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="63" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="63" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="63" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="17.649999999999999">
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="62" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="63" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="63" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="63" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="63" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="63" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="17.649999999999999">
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="62" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="63" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="63" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="63" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="63" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="64" t="s">
+      <c r="B67" s="63" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="17.649999999999999">
-      <c r="B68" s="63" t="s">
+      <c r="B68" s="62" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="63" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="63" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="63" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="64" t="s">
+      <c r="B72" s="63" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="63" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="17.649999999999999">
-      <c r="B74" s="63" t="s">
+      <c r="B74" s="62" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="63" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="63" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="63" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="64" t="s">
+      <c r="B78" s="63" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="63" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="80" spans="2:2" ht="17.649999999999999">
-      <c r="B80" s="63" t="s">
+      <c r="B80" s="62" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="64" t="s">
+      <c r="B81" s="63" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="64" t="s">
+      <c r="B82" s="63" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="64" t="s">
+      <c r="B83" s="63" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="64" t="s">
+      <c r="B84" s="63" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="64" t="s">
+      <c r="B85" s="63" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="17.649999999999999">
-      <c r="B86" s="63" t="s">
+      <c r="B86" s="62" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="63" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="64" t="s">
+      <c r="B88" s="63" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="64" t="s">
+      <c r="B89" s="63" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="64" t="s">
+      <c r="B90" s="63" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="64" t="s">
+      <c r="B91" s="63" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="17.649999999999999">
-      <c r="B92" s="63" t="s">
+      <c r="B92" s="62" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="63" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="64" t="s">
+      <c r="B94" s="63" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="64" t="s">
+      <c r="B95" s="63" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="64" t="s">
+      <c r="B96" s="63" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="64" t="s">
+      <c r="B97" s="63" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="17.649999999999999">
-      <c r="B98" s="63" t="s">
+      <c r="B98" s="62" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="64" t="s">
+      <c r="B99" s="63" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="63" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="64" t="s">
+      <c r="B101" s="63" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="64" t="s">
+      <c r="B102" s="63" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="63" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="17.649999999999999">
-      <c r="B104" s="63" t="s">
+      <c r="B104" s="62" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="64" t="s">
+      <c r="B105" s="63" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="64" t="s">
+      <c r="B106" s="63" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="63" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="64" t="s">
+      <c r="B108" s="63" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="64" t="s">
+      <c r="B109" s="63" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="17.649999999999999">
-      <c r="B110" s="63" t="s">
+      <c r="B110" s="62" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="64" t="s">
+      <c r="B111" s="63" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="64" t="s">
+      <c r="B112" s="63" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="64" t="s">
+      <c r="B113" s="63" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="64" t="s">
+      <c r="B114" s="63" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="64" t="s">
+      <c r="B115" s="63" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="17.649999999999999">
-      <c r="B116" s="63" t="s">
+      <c r="B116" s="62" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="64" t="s">
+      <c r="B117" s="63" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="64" t="s">
+      <c r="B118" s="63" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="64" t="s">
+      <c r="B119" s="63" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="64" t="s">
+      <c r="B120" s="63" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="64" t="s">
+      <c r="B121" s="63" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="17.649999999999999">
-      <c r="B122" s="63" t="s">
+      <c r="B122" s="62" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="64" t="s">
+      <c r="B123" s="63" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="64" t="s">
+      <c r="B124" s="63" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="64" t="s">
+      <c r="B125" s="63" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="64" t="s">
+      <c r="B126" s="63" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="64" t="s">
+      <c r="B127" s="63" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="128" spans="2:2" ht="17.649999999999999">
-      <c r="B128" s="63" t="s">
+      <c r="B128" s="62" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="64" t="s">
+      <c r="B129" s="63" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="64" t="s">
+      <c r="B130" s="63" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="64" t="s">
+      <c r="B131" s="63" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="64" t="s">
+      <c r="B132" s="63" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="64" t="s">
+      <c r="B133" s="63" t="s">
         <v>267</v>
       </c>
     </row>
@@ -12597,15 +12568,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D201DA8C-2F66-4DBB-BDCE-A2C1AC1DDC96}">
-  <dimension ref="B1:Q11"/>
+  <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="14.65" thickBot="1">
@@ -12715,9 +12690,42 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
+    <row r="16" spans="2:17">
+      <c r="N16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14">
+      <c r="I17" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17">
+        <v>56</v>
+      </c>
+      <c r="N17" s="47">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14">
+      <c r="F21" s="1">
+        <v>45697</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:14">
+      <c r="F22" s="64">
+        <v>45698</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13990,155 +13998,76 @@
       <c r="F51" s="41">
         <v>1</v>
       </c>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="43"/>
+      <c r="P51" s="42"/>
     </row>
     <row r="52" spans="6:16">
       <c r="F52" s="41">
         <v>2</v>
       </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42">
+      <c r="H52">
         <v>4</v>
       </c>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="43"/>
+      <c r="P52" s="42"/>
     </row>
     <row r="53" spans="6:16">
       <c r="F53" s="41">
         <v>3</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="43"/>
+      <c r="P53" s="42"/>
     </row>
     <row r="54" spans="6:16">
       <c r="F54" s="41">
         <v>4</v>
       </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="43"/>
+      <c r="P54" s="42"/>
     </row>
     <row r="55" spans="6:16">
       <c r="F55" s="41">
         <v>5</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42">
+      <c r="J55">
         <v>20</v>
       </c>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="43"/>
+      <c r="P55" s="42"/>
     </row>
     <row r="56" spans="6:16">
       <c r="F56" s="41">
         <v>6</v>
       </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="43"/>
+      <c r="P56" s="42"/>
     </row>
     <row r="57" spans="6:16">
       <c r="F57" s="41">
         <v>7</v>
       </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="43"/>
+      <c r="P57" s="42"/>
     </row>
     <row r="58" spans="6:16">
       <c r="F58" s="41">
         <v>8</v>
       </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="43"/>
+      <c r="P58" s="42"/>
     </row>
     <row r="59" spans="6:16">
       <c r="F59" s="41">
         <v>9</v>
       </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="43"/>
+      <c r="P59" s="42"/>
     </row>
     <row r="60" spans="6:16" ht="14.65" thickBot="1">
-      <c r="F60" s="46">
+      <c r="F60" s="45">
         <v>10</v>
       </c>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="45"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14176,7 +14105,7 @@
       <c r="B3" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <v>14523.456789</v>
       </c>
     </row>
@@ -14184,7 +14113,7 @@
       <c r="B4" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <v>14523.456789</v>
       </c>
     </row>
@@ -14192,7 +14121,7 @@
       <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>14523.456789</v>
       </c>
     </row>
@@ -14208,15 +14137,15 @@
       <c r="B7" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="50">
         <v>14523.456789</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="51">
         <v>14523.456789</v>
       </c>
     </row>
@@ -14224,7 +14153,7 @@
       <c r="B9" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="52">
         <v>0</v>
       </c>
     </row>
@@ -14232,16 +14161,16 @@
       <c r="B10" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="52">
         <v>1</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="52">
         <v>0.15</v>
       </c>
     </row>
@@ -14249,7 +14178,7 @@
       <c r="B12" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="53">
         <v>1.25</v>
       </c>
     </row>
@@ -14257,7 +14186,7 @@
       <c r="B13" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <v>14523.456789</v>
       </c>
     </row>
@@ -14265,7 +14194,7 @@
       <c r="B14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="55" t="s">
         <v>134</v>
       </c>
       <c r="E14">
@@ -14281,32 +14210,32 @@
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <v>14523.456789</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="57">
+      <c r="C22" s="56">
         <v>14523.456789</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="58">
+      <c r="C23" s="57">
         <v>14523.456789</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="59">
+      <c r="C24" s="58">
         <v>14523.456789</v>
       </c>
     </row>
     <row r="25" spans="3:4">
-      <c r="C25" s="61">
+      <c r="C25" s="60">
         <v>14523.456789</v>
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="C26" s="62">
+      <c r="C26" s="61">
         <v>14523.456789</v>
       </c>
     </row>
@@ -14316,17 +14245,17 @@
       </c>
     </row>
     <row r="29" spans="3:4">
-      <c r="D29" s="60">
+      <c r="D29" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:4">
-      <c r="D30" s="60">
+      <c r="D30" s="59">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="3:4">
-      <c r="D31" s="60">
+      <c r="D31" s="59">
         <v>1</v>
       </c>
     </row>
